--- a/DOWNLOADS/EDITAIS/U_925543_E_900342025_15-10-2025_14h00m/U_925543_E_900342025_15-10-2025_14h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_925543_E_900342025_15-10-2025_14h00m/U_925543_E_900342025_15-10-2025_14h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="164">
   <si>
     <t>Nº</t>
   </si>
@@ -412,34 +412,40 @@
     <t>Estante rack Estante Rack Padrão: 19 X 42u, Estrutura: Aço, Portas: Frontais, Laterais E Traseiras Removíveis, Cor: Preta, Acabamento Superficial: Pintura Em Epóxi, Aplicação: Rede De Informática</t>
   </si>
   <si>
-    <t>Luminária Tipo: Emergência, Material Corpo: Plástico, Formato: Retangular, Tipo Lâmpada: Led, Cor: Branca Fria, Quantidade Lâmpadas: 30UN, Características Adicionais: Bateria Com Autonomia De 6 H, Dimensões: 5,6 X 21 X 2,8CM, Potência Nominal Lâmpada: 2W, Componentes: Chave Teste</t>
-  </si>
-  <si>
-    <t>Leitor De Livro Digital Material: Abs - Acrilonitrila/Butadieno/Estireno, Resolução: 1024 X 768, Tamanho Tela: 6POL, Capacidade Armazenamento: 8GB, Formato Texto: Txt, Html, Pdf, Dpub, Djvu, Epub, Tiff, Rtf, Cbz,, Formato Áudio: Mp3, Wav. E Outros Formatos, Formato Imagem: Jpg, Bmp, Gif, Png</t>
-  </si>
-  <si>
-    <t>Fragmentadora Papel Material: Plástico, Capacidade Fragmentação: 15FL, Tensão Motor: 110V, Capacidade Lixeira: 30L, Potência: 600W, Tipo: Automática, Características Adicionais: Fragmenta Fls/Cartão/Cd, Nível Ruído: 60DB</t>
-  </si>
-  <si>
-    <t>Tela Projeção Material Estrutura: Alumínio, Tipo Tripé: Com Ajuste De Altura Multi Point, Tipo Ajuste Tela: Retrátil, Tipo Acabamento: Traçado Por Filamento C/ Filme Black Out, Material: Tecido Acetinado Branco Duplo, Cor Acabamento: Branca, Tipo Fixação: Tripé, Cor: Branca, Altura: 1,80M, Largura: 1,80M, Material Triplé: Alumínio, Características Adicionais: Tripé Anodizado Fosco Com Ajuste De Altura E Incli, Tipo Tela: Retrátil, Pintura: Eletrostática</t>
-  </si>
-  <si>
-    <t>Aparelho Telefônico Celular Modelo: Samsung/ Smartphone Dual Chip, Quantidade Linhas Telefônicas: 1UN, Características Adicionais: 128 Gb, 5g Tela 6.6, 4gb Ram, Acessórios: Carregador De Bateria, Display: 6.1POL, Capacidade Bateria: 5.000MAH</t>
-  </si>
-  <si>
-    <t>Aeronaves Teleguiadas Tipo: Aeronave Remotamente Pilotada (Drone), Quantidade Motores: 4 Motores, Tamanho Diagonal: 350MM, Peso Máximo: 1.375G, Velocidade Ascensão Vertical: 6M/S, Características Adicionais: Cmos De 20 Megapixels De 1pol, Câmera 4k</t>
-  </si>
-  <si>
-    <t>Lousa Interativa Material: Aço, Tamanho Tela: 82POL, Tipo Alimentação: Usb, Características Adicionais: Sistema Áudio Estéreo Integrado À Lousa/Software C, Tipo Tela: Interação Através De Toque, Software: Windows, Mac, Linux E Android</t>
-  </si>
-  <si>
-    <t>Scanner Tipo: 3d, Cromatismo: Policromático, Dimensão Digitalização Métrica Máxima: 200 X 200 X 200CM, Interface: Usb 3.0, Características Adicionais: Tripé E Base Giratória, Compatibilidade: Windows 10, Voltagem: Bivolt</t>
-  </si>
-  <si>
-    <t>Scanner Tipo: 3d Portátil, Tipo Digitalização: 22 Linhas Lasers Azuis, Interface: Usb 3.0, Características Adicionais: Precisão 0,025 Mm, 1.300.000 Medições/S, Software: Vxelements, Compatibilidade: Solidworks, Nx, Solid Edge, Aplicação: Controle De Qualidade De Peças</t>
-  </si>
-  <si>
-    <t>Equipamento Wireless Padrão: 802.3af (Wi-Fi), Frequência: 60HZ, Tensão Alimentação: 110/220V, Aplicação: Alimentação De Pontos De Acesso, Conexão: 2 X Rj-45 Fêmeas Operando Em Gigabit, Características Adicionais: Até 15.4w P/Dispositivo A Ser Alimentado Comutaç, Tipo: Injetor Poe</t>
+    <t>Bloco de Iluminação de Emergência Autônomo Branco, similar ou superior ao BLA 1200</t>
+  </si>
+  <si>
+    <t>E-reader  om luz integrada, resolução de 300 ppi, tecnologia de fonte otimizada e escala de cinza com 16 níveis, 157,8 x 108,6 x 8,0 mm, com 16gb de memória.Garantia não inferior a 1 ano</t>
+  </si>
+  <si>
+    <t>Fragmentadora de papel com capacidade de no mínimo 10 folhas por vez, capacidade de fragmentar grampos. Garantia mínima de 01 ano.</t>
+  </si>
+  <si>
+    <t>Tela de Projeção Retrátil Manual Formato 4:3. Dimensões aproximadas da tela: 200 x 150 cm. Mecanismo automatico de enrolamento com parada multiponto. Fixação teto/parede. Caixa externa 100% alumínio com pintura eletrostática de alta resistência.Tela com tecido matt-white lavável e resistente a umidade. Garatia minima de 12 meses.</t>
+  </si>
+  <si>
+    <t>Smartphone Especificações: Motorola Moto G04s 128GB Coral Tela 6,6" Câmera 50MP Selfie 5MP Dual Chip Android 14. Similar ou superior.Garantia não inferior a 1 ano</t>
+  </si>
+  <si>
+    <t>Drone DJI Mini 4 Pro Fly More Combo Plus DJI RC 2 DJI044 similar ou superior (Com tela) (BR). Com garantia mínima de 01 ano.</t>
+  </si>
+  <si>
+    <t>Drone DJI Mavic 3 Pro Fly More Combo (Com tela e saída HDMI) BR, similar técnico ou superior. Deve possuir uma câmera Hasselblad L2D-20c com resolução de 20 megapixels ou similar técnico de descrição igual ou superior. Além de um sensor CMOS de 4/3 de polegada, capaz de gravar vídeos em 5.1K a 50fps e 4K a 120fps. A câmera deve possuir abertura ajustável de f/2.8 a f/11, permitindo flexibilidade em diversas condições de iluminação. Garantia: não inferior a 1(um) ano a partir da data de fornecimento dequipamento</t>
+  </si>
+  <si>
+    <t>Drone de câmera voadora com gimbal integrado. Peso aproximado incluindo bateria e hélices de 1380 g; velocidade de subida de pelo menos 6m/s; teto máximo de serviço acima do nível do mar de pelo menos 6.000 m; resistir à vento de velocidade 10 m/s; tempo de voo de pelo menos 28 minutos; mínimo de faixa de temperatura operacional 0 a 40°C; sistemas de posicionamento por satélite GPS / GLONASS; sistema de visão para a frente e sistema de visão para baixo; mínimo de alcance Sensorial de obstáculo 0,7 a 15 m; mínimo de freqüência de medição Para frente de 10 Hz, para baixo de 20 Hz; bateria com mínimo de capacidade de 5350 mA; cÂMERA Sensor 1 / 2,3 "CMOS mínimo de Efetivos pixels de 12,4 M; Lente com formato equivalente a 35 mm, f / 2.8 foco em 8, faixa ISO 100- 3200 (vídeo) 100-1600 (foto), velocidade mínima do obturador eletrônico 8-1/8000 s, produzir tamanho da imagem 4000 × 3000, Taxa de bits máxima de vídeo 60 Mbps. Sistemas de arquivos suportados FAT32 (=32 GB); exFAT (32 GB). Foto JPEG, DNG. Garantia não inferior a 1 ano</t>
+  </si>
+  <si>
+    <t>Lousa Interativa Digital Touch Screen Color 82 polegadas. Marca de Referência Unionboard, similar ou superior.</t>
+  </si>
+  <si>
+    <t>Kit Scanner 3D portátil com precisão de 0,05mm para uso em peças de pequeno e médio porte. Compatível com sistema Windows, IOS, Mac OS, Android e IOS. Acompanha Scanner 3 D; case acolchoada; tripé; mesa giratória; adaptador de encaixe rápido; cabo USB C; suporte para Smartphones e iPhone; cabo para smartphones 2 em 1; adesivo para fixação de objetos blu tack; adesivos marcadores (markers); lona plástica preta para controle de iluminação.</t>
+  </si>
+  <si>
+    <t>Scanner portátil de documentos Scanner A4 de livros Formato JPG e PDF 300/600/900 DPI. Garantia não inferior a 1 ano</t>
+  </si>
+  <si>
+    <t>Adaptador PoE +, U-PoE-at (PoE+ 30W). Entrega até 30W de PoE+, Compatível com o U6-Mesh, com a câmera G4 P. Garantia não inferior a 1 ano</t>
   </si>
   <si>
     <t>Ubiquiti Unifi Access Point U6 Mesh Pro Access Point Wi-Fi 6 de alto desempenho. Obs: A necessidade de aquisição dos equipamentos supracitados da forma como foi descrito. Se dá, em virtude da necessidade de padronização de interfaces na UERN, tendo em vista a aquisição anterior de equipamentos de mesma característica/configuração e uso dentro da instituição. Garantia não inferior a 1 ano</t>
@@ -448,7 +454,7 @@
     <t>Ubiquiti Unifi Access Point U6 Pro (U6-PRO) Access Point Wi-Fi 6 de alto desempenho. Obs: A necessidade de aquisição dos equipamentos supracitados da forma como foi descrito. Se dá, em virtude da necessidade de padronização de interfaces na UERN, tendo em vista a aquisição anterior de equipamentos de mesma característica/configuração e uso dentro da instituição.Garantia não inferior a 1 ano</t>
   </si>
   <si>
-    <t>Mini Rack para redes, 19 Polegadas. Mínimo de 9Ux570mm de Parede Para Servidor Data Center Padrão 19", preto; Deve possuir tampa frontal com acrílico e duas chaves com tranca.</t>
+    <t>Mini Rack para redes, 19 Polegadas. Mínimo de 9Ux570mm de Parede Para Servidor Data Center Padrão 19'', preto; Deve possuir tampa frontal com acrílico e duas chaves com tranca.</t>
   </si>
   <si>
     <t>Webcam C922 Pro HD Stream LOGITECH. Similar ou superior. Garantia não inferior a 1 ano.</t>
@@ -457,436 +463,40 @@
     <t>Câmera tipo Webcam. Resolução Ultra HD 4k ou superior. Microfones omidirecionais integrados. Memória micro SD. Videochamadas em ultra hd 4k (até 4096 x 2160 pixels a 30 fps). Tecnologia infravermelho e usb. Marca/modelo de referência: Brio - Logitech. Similar ou superior.</t>
   </si>
   <si>
-    <t>Câmera digital compacta, Pixels efetivos: Mínimo de 16,0 milhões, Sensor de imagem: CMOS do tipo 1/2,3 pol., Objetiva: Objetiva com zoom ótico de, no mínimo, 125x, Zoom: Ótico de, no mínimo, 125x e Dinâmico de, pelo menos, 250x, Gama de focagem: [Grande angular]: Aproximadamente 30 cm até ao infinito, [Teleobjetiva]: Aproximadamente 7,0 m até ao infinito, Modo macro close-up: Aproximadamente 1 cm até ao infinito (posição de grande angular), Aproximadamente 7,0 m até ao infinito (posição de teleobjetiva), (Todas as distâncias medidas partir do centro da superfície frontal da lente), Visor: Visor eletrônico OLED, Monitor: Monitor LCD TFT multiângulo, entre 7,5 cm e 8,5 cm, Armazenamento - formato de ficheiros: Fotografias, ao menos, nos seguintes formatos: JPEG, RAW (NRW); Filmes: MP4 (Vídeo: AVC H.264/MPEG-A, Áudio: estéreo AAC), Tipo de Obturador: Obturador mecânico e CMOS eletrônico, Velocidade do obturador: Mínimo de 1/40002 a 1 seg, Conectores: HDMI, Microfone, USB Wi-Fi: Sim, &gt; Bluetooth: Sim, Microfone: Sim, Fontes de alimentação: bateria de lítio recarregável.</t>
-  </si>
-  <si>
-    <t>Câmera De Trilha Caça Trap Noturna 16mp FullHD Com Bateria(para levantamento de fauna e flora) Uso de cartão dememoória. Lente: F = 3,1; FOV = 120 graus.Tamanho: 135milímetros * Omm * 76 mm. Display: 2,4 polegadas TFT.Modo: Camera / Video / Camera &amp; Video /Timelapse. PIRDetecção Faixa: 120 graus. Night Vision Distância: 65 pés / 20 metros. IR LED: 36 LEDs Infared. PIR Distância: 65 pés / 20metros. Gatilho Velocidade: 0,3segundo.PIRIntervalo:1/5/10/30 seg / min (padrão 1 seg). Resolução da imagem:6MP / 12MP / 8MP. Várias fotos em uma detecção: 1/3/6/9. Vídeo Resolução: 1080P / 720P / WVGA / VGA. Formato dearquivo: JPEG / AVI. Date Time Imprint: Sim Moon Phasemprint: Sim. ISO Exposição: Auto / 100/200/400. Interface:saída para TV; USB2.0; Micro SD Card; 6V / 1.5A encaixeexterno. Detecção de movimento: Baixo / Médio / Alto. Fontee alimentação : bateria de lítio 5000mA, 12V externa / 1.5ADC. Com timer. Waterproof: IP65.</t>
-  </si>
-  <si>
-    <t>Estufa Analógica de esterilização e secagem interior em inox 13 litros: com medidas internas de 23x25x23 (AxLxP)cm. Gabinete construído em chapa de aço carbono SAE 1020 com tratamento anticorrosivo e acabamento (pintura) em epóxi texturizado eletrostático. Câmara interna em aço inox AISI 430. Saída superior — respiro para gases, umidade ou acomodação do termômetro. Trilhos internos para deslocamento das bandejas. Sistema de fecho tipo rolete. Vedação com perfil de silicone de alta temperatura. Porta fusível, com fusível de proteção. Painel de controle dotado com Termômetro; Chave geral liga/desliga; Termostato; Porta fusível. temperatura de trabalho: 50ºc até 250ºc. controle de temperatura: analógico — termostato eletromecânico. indicação de processo: lâmpada piloto. sistema de aquecimento: resistência blindada. isolamento térmico: isolação térmica em lã de vidro, inclusive nas portas. circulação de ar: circulação de ar por convecção natural, livre de ruídos. alimentação: bivolt ou 220v.</t>
-  </si>
-  <si>
-    <t>Cápsulas de Alumínio para amostras de solo, de 70x45mm c/ tampa 159ml, que acondicionam anés de 100 ou de 50cm?.</t>
-  </si>
-  <si>
-    <t>Multímetro Digital. Equipamento com suporte para medições precisas de corrente DC, tensão AC/DC, resistência, teste de diodo, continuidade e hFE. Com display de 3 1/2 dígitos e 2000 contagens. Funcionalidades: luz de fundo e lanterna, alarme de continuidade, Data Hold, função +1% para tensão AC (True RMS). Com proteção contra sobrecarga de até 600V DC/AC RMIS e Relativo, e NCV (detecção de corrente sem contato). com tolerâncias de até +0,5% para tensão DC e desligamento automático após 15 minutos de inatividade. Bateria com duração de até 200 horas com pilhas alcalinas. Deve possuir conformidade com a norma IEC61010 CAT |l 600V e suas especificações robustas de resistência e corrente. Garantia total de pelo menos 1 ano. Modelo de referência: Minipa ET- 1110B, podendo ser similar ou superior.</t>
-  </si>
-  <si>
-    <t>Ferramenta para teste e rastreamento de cabos de rede. Equipado com bateria de lítio recarregável de 3,7V e e pelo menos 1400mAh. Com capacidade de medir cabos de até 500 metros de comprimento. Dispositivo com três modos de varredura (digital, analógico e POE), além de recursos como medição precisa do comprimento do (2,5m a 500m), teste de falhas no cabo, identificação de pontos de entrada, função blink para localizar portas de rede e a detecção de tensão AC (70V-1000V). O dispositivo deve ser capaz de realizar testes em cabos CAT5, CAT6, STP e UTP, com uma precisão de + 1,6m para medição de comprimento. Deve possuir tela LCD retroiluminada para facilitar a leitura. Deve acompanhar os acessórios completos, incluindo adaptadores de cabo e cabo USB tipo C para recarga. Unidade composta 1 componente emissor e 1 componente receptor. Modelo de referência: Noyafa Nf- 8209, podendo ser similar ou superior</t>
+    <t>Câmera digital compacta, Pixels efetivos: Mínimo de 16,0 milhões, Sensor de imagem: CMOS do tipo 1/2,3 pol., Objetiva: Objetiva com zoom ótico de, no mínimo, 125x, Zoom: Ótico de, no mínimo, 125x e Dinâmico de, pelo menos, 250x, Gama de focagem: [Grande angular]: Aproximadamente 30 cm até ao infinito, [Teleobjetiva]: Aproximadamente 7,0 m até ao infinito, Modo macro close-up: Aproximadamente 1 cm até ao infinito (posição de grande angular), Aproximadamente 7,0 m até ao infinito (posição de teleobjetiva), (Todas as distâncias medidas a partir do centro da superfície frontal da lente), Visor: Visor eletrônico OLED, Monitor: Monitor LCD TFT multiângulo, entre 7,5 cm e 8,5 cm, Armazenamento - formato de ficheiros: Fotografias, ao menos, nos seguintes formatos: JPEG, RAW (NRW); Filmes: MP4 (Vídeo: AVC H.264/MPEG-4, Áudio: estéreo AAC), Tipo de Obturador: Obturador mecânico e CMOS eletrônico, Velocidade do obturador: Mínimo de 1/40002 a 1 seg, Conectores: HDMI, Microfone, USB Wi-Fi: Sim, ➢ Bluetooth: Sim, Microfone: Sim, Fontes de alimentação: bateria de lítio recarregável.</t>
+  </si>
+  <si>
+    <t>Câmera De Trilha Caça Trap Noturna 16mp FullHD Com Bateria(para levantamento de fauna e flora) Uso de cartão dememória. Lente: F = 3,1; FOV = 120 graus.Tamanho: 135milímetros * 0mm * 76 mm. Display: 2,4 polegadas TFT.Modo: Camera / Video / Camera &amp; Video /Timelapse. PIRDetecção Faixa: 120 graus. Night Vision Distância: 65 pés / 20 metros. IR LED: 36 LEDs Infared. PIR Distância: 65 pés / 20metros. Gatilho Velocidade: 0,3segundo.PIRIntervalo:1/5/10/30 seg / min (padrão 1 seg). Resolução da imagem:6MP / 12MP / 8MP. Várias fotos em uma detecção: 1/3/6/9. Vídeo Resolução: 1080P / 720P / WVGA / VGA. Formato dearquivo: JPEG / AVI. Date Time Imprint: Sim Moon Phasemprint: Sim. ISO Exposição: Auto / 100/200/400. Interface:saída para TV; USB2.0; Micro SD Card; 6V / 1.5A encaixeexterno. Detecção de movimento: Baixo / Médio / Alto. Fontee alimentação : bateria de lítio 5000mA, 12V externa / 1.5ADC. Com timer. Waterproof: IP65.</t>
+  </si>
+  <si>
+    <t>Estufa Analógica de esterilização e secagem interior em inox 13 litros: com medidas internas de 23x25x23 (AxLxP)cm. Gabinete construído em chapa de aço carbono SAE 1020 com tratamento anticorrosivo e acabamento (pintura) em epóxi texturizado eletrostático. Câmara interna em aço inox AISI 430. Saída superior – respiro para gases, umidade ou acomodação do termômetro. Trilhos internos para deslocamento das bandejas. Sistema de fecho tipo rolete. Vedação com perfil de silicone de alta temperatura. Porta fusível, com fusível de proteção. Painel de controle dotado com Termômetro; Chave geral liga/desliga; Termostato; Porta fusível. temperatura de trabalho: 50°c até 250°c. controle de temperatura: analógico – termostato eletromecânico. indicação de processo: lâmpada piloto. sistema de aquecimento: resistência blindada. isolamento térmico: isolação térmica em lã de vidro, inclusive nas portas. circulação de ar: circulação de ar por convecção natural, livre de ruídos. alimentação: bivolt ou 220v.</t>
+  </si>
+  <si>
+    <t>Cápsulas de Alumínio para amostras de solo, de 70x45mm c/ tampa 159ml, que acondicionam anés de 100 ou de 50cm³.</t>
+  </si>
+  <si>
+    <t>Multímetro Digital. Equipamento com suporte para medições precisas de corrente DC, tensão AC/DC, resistência, teste de diodo, continuidade e hFE. Com display de 3 1/2 dígitos e 2000 contagens. Funcionalidades: luz de fundo e lanterna, alarme de continuidade, Data Hold, função Relativo, e NCV (detecção de corrente sem contato). com tolerâncias de até ±0,5% para tensão DC e ±1% para tensão AC (True RMS). Com proteção contra sobrecarga de até 600V DC/AC RMS e desligamento automático após 15 minutos de inatividade. Bateria com duração de até 200 horas com pilhas alcalinas. Deve possuir conformidade com a norma IEC61010 CAT II 600V e suas especificações robustas de resistência e corrente. Garantia total de pelo menos 1 ano. Modelo de referência: Minipa ET- 1110B, podendo ser similar ou superior.</t>
+  </si>
+  <si>
+    <t>Ferramenta para teste e rastreamento de cabos de rede. Equipado com bateria de lítio recarregável de 3,7V e e pelo menos 1400mAh. Com capacidade de medir cabos de até 500 metros de comprimento. Dispositivo com três modos de varredura (digital, analógico e POE), além de recursos como medição precisa do comprimento do (2,5m a 500m), teste de falhas no cabo, identificação de pontos de entrada, função blink para localizar portas de rede e a detecção de tensão AC (70V-1000V). O dispositivo deve ser capaz de realizar testes em cabos CAT5, CAT6, STP e UTP, com uma precisão de ± 1,6m para medição de comprimento. Deve possuir tela LCD retroiluminada para facilitar a leitura. Deve acompanhar os acessórios completos, incluindo adaptadores de cabo e cabo USB tipo C para recarga. Unidade composta 1 componente emissor e 1 componente receptor. Modelo de referência: Noyafa Nf- 8209, podendo ser similar ou superior</t>
   </si>
   <si>
     <t>Fluke Networks DSX-8000 CableAnalyzer + CertiFiber Pro (OLTS - Nível 1) + OptiFiber Pro (OTDR - Nível 2):, similar ou superior com garantia não inferior a 1(um) ano.</t>
   </si>
   <si>
-    <t>Alicate Amperímetro Digital Ttue RMS com capacidade de medição multifuncional. Deve possuir display LCD de 6000 contagens, com iluminação da garra e taxa de amostragem de aproximadamente 3 vezes por segundo. Deve ser capaz de realizar medições precisas de tensão AC/DC, corrente AC, frequência, duty cycle, resistência, capacitância, temperatura, diodo, continuidade, corrente inrush, e disponibilizar funções NCV e LIVE. Deve contar proteção para sobrecarga até 1000V DC e 750V AC, além de conformidade com as normas de segurança IEC/EN 61010. Deve contar com abertura de garra de 40Omm. Deve incluir recursos de indicação de bateria fraca, desligamento automático e operação em temperaturas de 0ºC a 40ºC. Deve acompanhar acessórios como manual de instruções, pontas de prova, termopar tipo K e bolsa para transporte. Modelo de referência: Minipa ET-3710B, podendo ser similar ou superior.</t>
-  </si>
-  <si>
-    <t>Projetor Multimídia: Brilho mínimo de 3.800 lúmens - ISO; taxa de contraste 16.000:1; Resolução nativa WXGA (1280 px x 800 px); possibilidade de projeção: frontal/traseira/teto; Conectividade: 2xDB15(VGA), 1x RJ45, 1x USB; 1x RCA Vídeo, 2x RCA áudio e 2x HDMI; Autofalante: com potência não inferior a SW; Reprodução de cor: 1 bilhão de cores; Vida útil da fonte de iluminação não deve ser inferior a 8.000 horas(modo normal); Deve acompanhar 1 bolsa de transporte; controle remoto; Garantia mínima de 2 anos, a contar da data de entrega do equipamento.</t>
-  </si>
-  <si>
-    <t>Computador Tipo 1. Computador desktop de uso corporativo, novo e sem uso anterior; Processador: 64 Bits Intel i3 ou superior(14º Geração ou mais recente) ou AMD Ryzen 3 ou superior(geração 8000 ou mais recente) Cache L3 ou Smartcache de, no mínimo 12MB. Deverá possuir suporte para barramento DDR5 ou superior. O processador deverá ser acompanhado por cooler compatível com o mesmo, com potência suficiente para resfriamento padrão. Deverá ser aplicada pasta térmica se o fabricante do processador assim o recomendar. Na proposta escrita, deverão ser informados a marca e o modelo do processador ofertado. Clock Máximo de 4.40 GHz ou superior, podendo ser aferido nos núcleos de performance e em carga total. Placa Mãe: Fabricação própria e compatível com o modelo ofertado. Não deve ser produzida em regime de OEM. Chip de segurança TPM versão 2.0 (ou superior) integrado para criptografia. Possuir dois slots padrão PCIE M.2 GEN 4 ou superior para discos NVME. Deve possuir slots e conexões para os dispositivos elencados neste termo de referência. Na proposta escrita, deverão ser informados a marca e o modelo da placa mãe ofertada a ser fornecida. Chipset: Deverá possuir suporte a expansão de memória de, no mínimo, 32 GB em dual channel ou superior; Deverá possuir suporte de memória do tipo: DDR5 4800 MHz ou barramento superior. Suporte a controladora de disco padrão NVME. Possuir suporte a configurações de memória de canal duplo (dual channel memory) para um melhor desempenho. Memória 8 GB RAM DDR5 ou Superior. Deve possuir 01(um) módulo de 8 GB RAM. Memória ram (Randon Access Memory) DDR5 4800 MHz ou superior. A memória não pode ser soldada diretamente na placa mãe. BIOS: Possibilidade de proteção da configuração por meio de senha (password) contida na própria memória de configuração da motherboard. A BIOS uefi deverá estar gravada em memória do tipo “flash” ou equivalente que permita a sua fácil atualização diretamente através do microcomputador, sem a necessidade de remoção ou apagamento (como no caso das Eprom). A configuração da máquina deverá ser alterável e mantida através de bateria (recarregável ou não) ou método equivalente (memória flash, eprom ou outra solução similar) montada sobre a própria motherboard. A bios UEFI deverá permitir atualização via software. Caso haja interrupção da energia durante a atualização, a bios deverá ser recuperada automaticamente para versão anterior ou ser possível recuperá-la online através de solução ofertada pelo fabricante, não podendo ser o equipamento inutilizado. As atualizações da bios uefi deverão ser disponibilizadas, através do site www ou ftp do fabricante da placa mãe. Assas atualizações, se ocorrerem, deverão ser gratuitas. suporte para o modo de economia de energia. Suporte ao sistema de gerenciamento dmi (desktop management interface) em sua v.2.0 ou mais recente. Deverá ter suporte ao idioma inglês e/ou português. Deverá ser fornecida solução que permita salvar as configurações de bios do equipamento em um arquivo executável/script para distribuição da configuração para equipamentos da mesma marca/modelo, independente de senha; Slots e portas de comunicação: portas usb: Mínimo de 06 (seis) portas usb; uma porta usb 3.2 tipo-c frontal. Não será permitido uso de “hub” usb externo. Conectores de áudio (line-in, line-out, mic in), sendo permitido conector combo (line-out, mic-in). Portas de vídeo: Mínimo de 02 (duas) portas de vídeo: 01 (uma) porta padrão hdmi; 01 (uma) porta padrão vga; Não será aceito adaptador para o padrão VGA; Deverá possuir 2 (dois) slots PCIE Gen 4 ou superior para conexão unidade de estado sólido padrão m.2 nvme. Controladora de disco: Controladora de unidade de discos padrão PCIE M.2 NVME; Interface de vídeo: Memória gráfica de, no mínimo, 256 mb com alocação dinâmica de memória ram. Resolução gráfica analógica de: 1920 x 1080 pixels ou superior. Suporte a directx versão 12 ou superior. Unidade de armazenamento: Unidade de estado sólido M.2 NVME de, no mínimo, 256 GB, velocidade de escrita e leitura superior a 2000MB/s; Na proposta escrita, deverão ser informados a marca e o modelo do disco rígido. Interface de rede: 01 (uma) interface de rede gigabit, com total compatibilidade com rede ethernet - padrões ieee 802.2 e 802.3. taxa de transmissão de 10mbps-half duplex, 10mbps-full duplex/100mbps- half duplex, 100MBPS full duplex e 1000MBPS full duplex (gigabit). Barramento de sistema para comunicação, tipo pci-express, podendo ser interno ao chipset ou placa mãe, dispensado o uso de slot PCIE. Suporte a função wake on lan. Interface de som: “on-board”, padrão plug-and-play. O equipamento deve possuir alto-falante interno capaz de reproduzir sons do sistema operacional; Mouse: mouse óptico, compatível com o microsoft mouse, com pelo menos 1600 dpi de sensibilidade, com 2 (dois) botões e rolete emborrachado de scroll, em conector usb, compatível com a interface ofertada na motherboard do equipamento. tapete (mousepad) para mouse. cor predominante preta. Não será aceito mouse tipo mini. Teclado: Compatível com o teclado ibm-pc/at, com layout abnt2. com, no mínimo, 101 teclas, padrão qwerty; teclas alfanuméricas, de função (f1 a f12), numéricas e de movimentação de cursor independentes. com conector usb compatível com a interface ofertada na motherboard do equipamento. com possibilidade de ajuste da inclinação. Com indicadores (led's) de num lock, caps lock e scroll lock. Cor predominante preta. Gabinete: Padrão micro-pc possuir local para uso de cadeado ou lacre para evitar acessos indevidos ao interior do gabinete. Possuir botão liga/desliga frontal com função dupla: liga/desliga e standby/sleep. Possuir indicadores liga/desliga e disco rígido na parte frontal. Cor preta. Fonte de alimentação: Tensão de entrada de 100 — 240 volts automática, com proteção contra variação de tensão na rede. Softwares: Licença de uso de software individual por microcomputador Windows 11 pro original 64 bits instalado, em português, A chave da licença (bios oem key) do sistema operacional microsoft windows deverá estar gravada na bios do equipamento. deverá ser fornecida solução para reinstalação do sistema operacional. serão aceitas as seguintes soluções: disco usb que instale o sistema operacional e drivers do equipamento com proteção de gravação. deverá ser entregue uma unidade para cada 5 equipamentos, sendo no mínimo duas unidades por local de entrega. solução de reinstalação do sistema operacional e drivers acessível através da bios do equipamento com conexão à internet, sem necessidade de disco usb externo. Garantia mínima de 03 anos com as seguintes características: O período de garantia será contado a partir da data da emissão do termo de aceite final dos equipamentos, não inferior a 03 (três) anos, sendo os atendimentos prestados no local de instalação e utilização dos computadores no município de campinas. caso a empresa proponente ofereça prazo de garantia superior ao exigido no item acima, deverá indicá-lo na proposta. A garantia, suporte técnico e a manutenção de hardware dos equipamentos serão de responsabilidade da fabricante, abrangendo a solução de problemas ocasionados pelo mau funcionamento e defeitos apresentados, sendo responsáveis pelo reparo e substituição de peças defeituosas por outra nova, de performance equivalente ou superior. Durante o período de garantia, a manutenção de hardware dos equipamentos e dispositivos que integram o equipamento, inclusive teclado e mouse, será de responsabilidade da fabricante dispondo do prazo máximo de 05 (cinco) dias úteis para a solução do problema, contados da abertura do chamado. Em caso de identificação de problemas generalizados de hardware, tais como defeitos de fabricação, incompatibilidade de drivers, entre outros, a fabricante deverá providenciar a correção do problema em até O5 (cinco) dias úteis contados do registro da ocorrência ou substituição em até 07 (sete) dias úteis. Caso algum equipamento apresente reincidência de problemas, a contratante poderá exigir sua substituição, que deverá ocorrer em até O5 (cinco) dias úteis a partir da data do registro da segunda ocorrência. A contratada deverá indicar o canal de atendimento da assistência técnica a ser prestado pela fabricante. Os chamados para solução de problemas com os equipamentos deverão receber um número para acompanhamento do usuário e deverão ter a resolução em até 3 dias úteis, com atendimento no local de trabalho do servidor público. durante o período de garantia a contratante poderá abrir e substituir os componentes internos (ex.: placas pci, disco, memória, etc) sem perda da garantia do equipamento, sem autorização do fabricante. neste caso, a garantia será restringida apenas aos itens fornecidos pelo fabricante. a garantia deverá possuir atendimento remoto telefônico com técnicos especializados das 8:00 às 20:00 para abertura de chamado e diagnóstico remoto. caso o problema não seja resolvido remotamente, o atendimento deverá ocorrer no local de instalação dos equipamentos em dias úteis das 8:00 às 18:00. deverá der fornecida solução que permita acompanhar e distribuir a atualização de drivers, firmwares e bios de forma centralizada para gerenciamento da política de segurança e atualização; deverá ser fornecido portal com acesso seguro que permita aos técnicos da FUERN, abertura de chamados em garantia de forma on-line e acompanhamento, sem a necessidade de ligação telefônicalcall center; Deverá ser fornecida solução que permita medir o histórico de uso dos componentes do equipamento como memória, disco, processador e identificar softwares utilizados e que impactam na performance do equipamento.</t>
-  </si>
-  <si>
-    <t>Computador Tipo 2. Computador desktop de uso corporativo, novo e sem uso anterior; Processador: 64 Bits Intel i5 14500 vPRO similar ou superior, considerando realização de benchmark de desempenho, devendo ser o respectivo desempenho igual ou superior ao referenciado; Deverá possuir suporte para barramento DDR5 ou superior. O processador deverá ser acompanhado por cooler compatível com o mesmo, com potência suficiente para resfriamento padrão. Deverá ser aplicada pasta térmica se o fabricante do processador assim o recomendar. Na proposta escrita, deverão ser informados a marca e o modelo do processador ofertado. Placa Mãe: Fabricação própria e compatível com o modelo ofertado. Não deve ser produzida em regime de oem. Chip de segurança TPM versão 2.0 (ou superior) integrado para criptografia. Possuir dois slots padrão PCIE M.2 GEN 4 ou superior para discos NVME. Deve possuir slots e conexões para os dispositivos elencados neste termo de referência. Na proposta escrita, deverão ser informados a marca e o modelo da placa mãe ofertada a ser fornecida. Chipset: Deverá possuir suporte a expansão de memória de, no mínimo, 32 gb em dual channel ou superior; Deverá possuir suporte de memória do tipo: DDR5 4800 MHz ou barramento superior. Suporte a controladora de disco padrão NVME. Possuir suporte a configurações de memória de canal duplo (dual channel memory) para um melhor desempenho. Memória 16 GB RAM DDR5 ou Superior. Deve possuir 02(dois) módulos de 8 GB RAM. Memória ram (randon access memory) DDR5 4800 MHz ou superior. A memória não pode ser soldada diretamente na placa mãe. BIOS: Possibilidade de proteção da configuração por meio de senha (password) contida na própria memória de configuração da motherboard. A BIOS uefi deverá estar gravada em memória do tipo “flash” ou equivalente que permita a sua fácil atualização diretamente através do microcomputador, sem a necessidade de remoção ou apagamento (como no caso das Eprom). A configuração da máquina deverá ser alterável e mantida através de bateria (recarregável ou não) ou método equivalente (memória flash, eprom ou outra solução similar) montada sobre a própria motherboard. A bios uefi deverá permitir atualização via software. Caso haja interrupção da energia durante a atualização, a bios deverá ser recuperada automaticamente para versão anterior ou ser possível recuperá-la online através de solução ofertada pelo fabricante, não podendo ser o equipamento inutilizado. As atualizações da bios uefi deverão ser disponibilizadas, através do site www ou ftp do fabricante da placa mãe. Assas atualizações, se ocorrerem, deverão ser gratuitas. suporte para o modo de economia de energia. Suporte ao sistema de gerenciamento dmi (desktop management interface) em sua v.2.0 ou mais recente. Deverá ter suporte ao idioma inglês e/ou português. Deverá ser fornecida solução que permita salvar as configurações de bios do equipamento em um arquivo executável/script para distribuição da configuração para equipamentos da mesma marca/modelo, independente de senha; Slots e portas de comunicação: portas usb: Mínimo de 06 (seis) portas usb; uma porta usb 3.2 tipo-c frontal. Não será permitido uso de “hub” usb externo. Conectores de áudio (line-in, line-out, mic in), sendo permitido conector combo (line-out, mic-in). Portas de vídeo: Mínimo de 02 (duas) portas de vídeo: 01 (uma) porta padrão HDMI; 01 (uma) porta padrão VGA; Não será aceito adaptador para o padrão VGA; Deverá possuir 2 (dois) slots PCIE Gen 4 ou superior para conexão unidade de estado sólido padrão m.2 nvme. Controladora de disco: Controladora de unidade de discos padrão PCIE M.2 NVME; Interface de vídeo: Memória gráfica de, no mínimo, 256 mb com alocação dinâmica de memória ram. Resolução gráfica analógica de: 1920 x 1080 pixels ou superior. Suporte a directx versão 12 ou superior. Unidade de armazenamento: Unidade de estado sólido M.2 NVME de, no mínimo, 512 GB, velocidade de escrita e leitura superior a 2000MB/s; Na proposta escrita, deverão ser informados a marca e o modelo do disco rígido. Interface de rede: 01 (uma) interface de rede gigabit, com total compatibilidade com rede ethernet - padrões ieee 802.2 e 802.3. taxa de transmissão de 10mbps-half duplex, 10mbps-full duplex/100mbps- half duplex, 100MBPS full duplex e 1000MBPS full duplex (gigabit). Barramento de sistema para comunicação, tipo pci-express, podendo ser interno ao chipset ou placa mãe, dispensado o uso de slot PCIE. Suporte a função wake on lan. Interface de som: “on-board”, padrão plug-and-play. O equipamento deve possuir alto-falante interno capaz de reproduzir sons do sistema operacional; Mouse: mouse óptico, compatível com o microsoft mouse, com pelo menos 1600 dpi de sensibilidade, com 2 (dois) botões e rolete emborrachado de scroll, em conector usb, compatível com a interface ofertada na motherboard do equipamento. tapete (mousepad) para mouse. cor predominante preta. Não será aceito mouse tipo mini. Teclado: Compatível com o teclado ibm-pc/at, com layout abnt2. com, no mínimo, 101 teclas, padrão qwerty; teclas alfanuméricas, de função (f1 a f12), numéricas e de movimentação de cursor independentes. com conector usb compatível com a interface ofertada na motherboard do equipamento. com possibilidade de ajuste da inclinação. Com indicadores (led's) de num lock, caps lock e scroll lock. Cor predominante preta. Gabinete: Padrão micro-pc possuir local para uso de cadeado ou lacre para evitar acessos indevidos ao interior do gabinete. Possuir botão liga/desliga frontal com função dupla: liga/desliga e standby/sleep. Possuir indicadores liga/desliga e disco rígido na parte frontal. Cor preta. Fonte de alimentação: Tensão de entrada de 100 — 240 volts automática, com proteção contra variação de tensão na rede. Softwares: Licença de uso de software individual por microcomputador windows 11 pro original 64 bits instalado, em português, elegível para downgrade para windows 10 pro. a chave da licença (bios oem key) do sistema operacional microsoft windows deverá estar gravada na bios do equipamento. deverá ser fornecida solução para reinstalação do sistema operacional. serão aceitas as seguintes soluções: disco usb que instale o sistema operacional e drivers do equipamento com proteção de gravação. deverá ser entregue uma unidade para cada 5 equipamentos, sendo no mínimo duas unidades por local de entrega. solução de reinstalação do sistema operacional e drivers acessível através da bios do equipamento com conexão à internet, sem necessidade de disco usb externo. Garantia mínima de 03 anos com as seguintes características: O período de garantia será contado a partir da data da emissão do termo de aceite final dos equipamentos, não inferior a 03(três) anos, sendo os atendimentos prestados no local de instalação e utilização dos computadores no município de campinas. caso a empresa proponente ofereça prazo de garantia superior ao exigido no item acima, deverá indicá-lo na proposta. A garantia, suporte técnico e a manutenção de hardware dos equipamentos serão de responsabilidade da fabricante, abrangendo a solução de problemas ocasionados pelo mau funcionamento e defeitos apresentados, sendo responsáveis pelo reparo e substituição de peças defeituosas por outra nova, de performance equivalente ou superior. Durante o período de garantia, a manutenção de hardware dos equipamentos e dispositivos que integram o equipamento, inclusive teclado e mouse, será de responsabilidade da fabricante dispondo do prazo máximo de O5 (cinco) dias úteis para a solução do problema, contados da abertura do chamado. Em caso de identificação de problemas generalizados de hardware, tais como defeitos de fabricação, incompatibilidade de drivers, entre outros, a fabricante deverá providenciar a correção do problema em até O5 (cinco) dias úteis contados do registro da ocorrência ou substituição em até 07 (sete) dias úteis. Caso algum equipamento apresente reincidência de problemas, a contratante poderá exigir sua substituição, que deverá ocorrer em até OS5 (cinco) dias úteis a partir da data do registro da segunda ocorrência. A contratada deverá indicar o canal de atendimento da assistência técnica a ser prestado pela fabricante. Os chamados para solução de problemas com os equipamentos deverão receber um número para acompanhamento do usuário e deverão ter a resolução em até 3 dias úteis, com atendimento no local de trabalho do servidor público. durante o período de garantia a contratante poderá abrir e substituir os componentes internos (ex.: placas pci, disco, memória, etc) sem perda da garantia do equipamento, sem autorização do fabricante. neste caso, a garantia será restringida apenas aos itens fornecidos pelo fabricante. a garantia deverá possuir atendimento remoto telefônico com técnicos especializados das 8:00 às 20:00 para abertura de chamado e diagnóstico remoto. caso o problema não seja resolvido remotamente, o atendimento deverá ocorrer no local de instalação dos equipamentos em dias úteis das 8:00 às 18:00. deverá der fornecida solução que permita acompanhar e distribuir a atualização de drivers, firmwares e bios de forma centralizada para gerenciamento da política de segurança e atualização; deverá ser fornecido portal com acesso seguro que permita aos técnicos da FUERN, abertura de chamados em garantia de forma on-line e acompanhamento, sem a necessidade de ligação telefônicaYcall center; Deverá ser fornecida solução que permita medir o histórico de uso dos componentes do equipamento como memória, disco, processador e identificar softwares utilizados e que impactam na performance do equipamento.</t>
-  </si>
-  <si>
-    <t>Computador Tipo 3. Computador desktop de uso corporativo, novo e sem uso anterior; Processador: 64 Bits Intel i7 14700 ou superior(14º Geração ou mais recente ) ou similar, considerando realização de benchmark de desempenho, devendo ser o respectivo desempenho igual ou superior ao referenciado; Deverá possuir suporte para barramento DDR5 ou superior. O processador deverá ser acompanhado por cooler compatível com o mesmo, com potência suficiente para resfriamento padrão. Deverá ser aplicada pasta térmica se o fabricante do processador assim o recomendar.Na proposta escrita, deverão ser informados a marca e o modelo do processador ofertado. Clock Máximo de 4.40 GHz ou superior, podendo ser aferido nos núcleos de performance e em carga total. Placa Mãe: Fabricação própria e compatível com o modelo ofertado. Não deve ser produzida em regime de oem.</t>
-  </si>
-  <si>
-    <t>204,36</t>
-  </si>
-  <si>
-    <t>560,46</t>
-  </si>
-  <si>
-    <t>3521,21</t>
-  </si>
-  <si>
-    <t>826,24</t>
-  </si>
-  <si>
-    <t>810,39</t>
-  </si>
-  <si>
-    <t>12875,47</t>
-  </si>
-  <si>
-    <t>38058,75</t>
-  </si>
-  <si>
-    <t>9844,90</t>
-  </si>
-  <si>
-    <t>3994,94</t>
-  </si>
-  <si>
-    <t>8875,00</t>
-  </si>
-  <si>
-    <t>558,73</t>
-  </si>
-  <si>
-    <t>100,69</t>
-  </si>
-  <si>
-    <t>1378,91</t>
-  </si>
-  <si>
-    <t>1720,34</t>
-  </si>
-  <si>
-    <t>492,52</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>1658,40</t>
-  </si>
-  <si>
-    <t>9539,13</t>
-  </si>
-  <si>
-    <t>318,00</t>
-  </si>
-  <si>
-    <t>2085,27</t>
-  </si>
-  <si>
-    <t>22,94</t>
-  </si>
-  <si>
-    <t>157,08</t>
-  </si>
-  <si>
-    <t>1254,32</t>
-  </si>
-  <si>
-    <t>104920,10</t>
-  </si>
-  <si>
-    <t>671,32</t>
-  </si>
-  <si>
-    <t>5539,90</t>
-  </si>
-  <si>
-    <t>4712,49</t>
-  </si>
-  <si>
-    <t>7700,00</t>
-  </si>
-  <si>
-    <t>15103,67</t>
-  </si>
-  <si>
-    <t>6516,90</t>
-  </si>
-  <si>
-    <t>13737,96</t>
-  </si>
-  <si>
-    <t>4009,40</t>
-  </si>
-  <si>
-    <t>5759,65</t>
-  </si>
-  <si>
-    <t>22714,98</t>
-  </si>
-  <si>
-    <t>7016,79</t>
-  </si>
-  <si>
-    <t>1503,89</t>
-  </si>
-  <si>
-    <t>976,51</t>
-  </si>
-  <si>
-    <t>1555,86</t>
-  </si>
-  <si>
-    <t>1709,29</t>
-  </si>
-  <si>
-    <t>1869,90</t>
-  </si>
-  <si>
-    <t>652,47</t>
-  </si>
-  <si>
-    <t>155,52</t>
-  </si>
-  <si>
-    <t>688,88</t>
-  </si>
-  <si>
-    <t>3423,50</t>
-  </si>
-  <si>
-    <t>5538,01</t>
-  </si>
-  <si>
-    <t>16471,48</t>
-  </si>
-  <si>
-    <t>23717,79</t>
-  </si>
-  <si>
-    <t>10564,33</t>
-  </si>
-  <si>
-    <t>67174,20</t>
-  </si>
-  <si>
-    <t>41473,08</t>
-  </si>
-  <si>
-    <t>1694,06</t>
-  </si>
-  <si>
-    <t>171,10</t>
-  </si>
-  <si>
-    <t>1529,99</t>
-  </si>
-  <si>
-    <t>4303,68</t>
-  </si>
-  <si>
-    <t>252,24</t>
-  </si>
-  <si>
-    <t>5113,01</t>
-  </si>
-  <si>
-    <t>4385,22</t>
-  </si>
-  <si>
-    <t>8528,18</t>
-  </si>
-  <si>
-    <t>2784,00</t>
-  </si>
-  <si>
-    <t>982,68</t>
-  </si>
-  <si>
-    <t>13439,41</t>
-  </si>
-  <si>
-    <t>42120,00</t>
-  </si>
-  <si>
-    <t>817,44</t>
-  </si>
-  <si>
-    <t>1681,38</t>
-  </si>
-  <si>
-    <t>14084,84</t>
-  </si>
-  <si>
-    <t>6609,92</t>
-  </si>
-  <si>
-    <t>3241,56</t>
-  </si>
-  <si>
-    <t>25750,94</t>
-  </si>
-  <si>
-    <t>76117,50</t>
-  </si>
-  <si>
-    <t>19689,80</t>
-  </si>
-  <si>
-    <t>23969,64</t>
-  </si>
-  <si>
-    <t>17750,00</t>
-  </si>
-  <si>
-    <t>1117,46</t>
-  </si>
-  <si>
-    <t>1611,04</t>
-  </si>
-  <si>
-    <t>154437,92</t>
-  </si>
-  <si>
-    <t>192678,08</t>
-  </si>
-  <si>
-    <t>19700,80</t>
-  </si>
-  <si>
-    <t>16500,00</t>
-  </si>
-  <si>
-    <t>8292,00</t>
-  </si>
-  <si>
-    <t>19078,26</t>
-  </si>
-  <si>
-    <t>3180,00</t>
-  </si>
-  <si>
-    <t>4170,54</t>
-  </si>
-  <si>
-    <t>458,80</t>
-  </si>
-  <si>
-    <t>1570,80</t>
-  </si>
-  <si>
-    <t>10034,56</t>
-  </si>
-  <si>
-    <t>5370,56</t>
-  </si>
-  <si>
-    <t>55399,00</t>
-  </si>
-  <si>
-    <t>706873,50</t>
-  </si>
-  <si>
-    <t>577500,00</t>
-  </si>
-  <si>
-    <t>166140,37</t>
-  </si>
-  <si>
-    <t>26067,60</t>
-  </si>
-  <si>
-    <t>27475,92</t>
-  </si>
-  <si>
-    <t>224526,40</t>
-  </si>
-  <si>
-    <t>143991,25</t>
-  </si>
-  <si>
-    <t>136289,88</t>
-  </si>
-  <si>
-    <t>84201,48</t>
-  </si>
-  <si>
-    <t>135350,10</t>
-  </si>
-  <si>
-    <t>19530,20</t>
-  </si>
-  <si>
-    <t>186703,20</t>
-  </si>
-  <si>
-    <t>41022,96</t>
-  </si>
-  <si>
-    <t>22438,80</t>
-  </si>
-  <si>
-    <t>7829,64</t>
-  </si>
-  <si>
-    <t>3421,44</t>
-  </si>
-  <si>
-    <t>41332,80</t>
-  </si>
-  <si>
-    <t>13694,00</t>
-  </si>
-  <si>
-    <t>110760,20</t>
-  </si>
-  <si>
-    <t>164714,80</t>
-  </si>
-  <si>
-    <t>166024,53</t>
-  </si>
-  <si>
-    <t>31692,99</t>
-  </si>
-  <si>
-    <t>134348,40</t>
-  </si>
-  <si>
-    <t>165892,32</t>
-  </si>
-  <si>
-    <t>16940,60</t>
-  </si>
-  <si>
-    <t>684,40</t>
-  </si>
-  <si>
-    <t>3059,98</t>
-  </si>
-  <si>
-    <t>25822,08</t>
-  </si>
-  <si>
-    <t>504,48</t>
-  </si>
-  <si>
-    <t>15339,03</t>
-  </si>
-  <si>
-    <t>8770,44</t>
-  </si>
-  <si>
-    <t>17056,36</t>
-  </si>
-  <si>
-    <t>5568,00</t>
-  </si>
-  <si>
-    <t>1965,36</t>
-  </si>
-  <si>
-    <t>80636,46</t>
-  </si>
-  <si>
-    <t>168480,00</t>
-  </si>
-  <si>
-    <t>52398,58</t>
-  </si>
-  <si>
-    <t>65372,92</t>
-  </si>
-  <si>
-    <t>235624,50</t>
-  </si>
-  <si>
-    <t>192500,00</t>
-  </si>
-  <si>
-    <t>60414,68</t>
-  </si>
-  <si>
-    <t>76178,60</t>
-  </si>
-  <si>
-    <t>68144,94</t>
-  </si>
-  <si>
-    <t>71153,37</t>
-  </si>
-  <si>
-    <t>84240,00</t>
+    <t>Alicate Amperímetro Digital True RMS com capacidade de medição multifuncional. Deve possuir display LCD de 6000 contagens, com iluminação da garra e taxa de amostragem de aproximadamente 3 vezes por segundo. Deve ser capaz de realizar medições precisas de tensão AC/DC, corrente AC, frequência, duty cycle, resistência, capacitância, temperatura, diodo, continuidade, corrente inrush, e disponibilizar funções NCV e LIVE. Deve contar proteção para sobrecarga até 1000V DC e 750V AC, além de conformidade com as normas de segurança IEC/EN 61010. Deve contar com abertura de garra de 40mm. Deve incluir recursos de indicação de bateria fraca, desligamento automático e operação em temperaturas de 0°C a 40°C. Deve acompanhar acessórios como manual de instruções, pontas de prova, termopar tipo K e bolsa para transporte. Modelo de referência: Minipa ET-3710B, podendo ser similar ou superior.</t>
+  </si>
+  <si>
+    <t>Projetor Multimídia: Brilho mínimo de 3.800 lúmens - ISO; taxa de contraste 16.000:1; Resolução nativa WXGA (1280 px x 800 px); possibilidade de projeção: frontal/traseira/teto; Conectividade: 2xDB15(VGA), 1x RJ45, 1x USB; 1x RCA Vídeo, 2x RCA áudio e 2x HDMI; Autofalante: com potência não inferior a 5W; Reprodução de cor: 1 bilhão de cores; Vida útil da fonte de iluminação não deve ser inferior a 8.000 horas(modo normal); Deve acompanhar 1 bolsa de transporte; controle remoto; Garantia mínima de 2 anos, a contar da data de entrega do equipamento.</t>
+  </si>
+  <si>
+    <t>Computador Tipo 1. Computador desktop de uso corporativo, novo e sem uso anterior; Processador: 64 Bits Intel i3 ou superior(14º Geração ou mais recente) ou AMD Ryzen 3 ou superior(geração 8000 ou mais recente) Cache L3 ou Smartcache de, no mínimo 12MB. Deverá possuir suporte para barramento DDR5 ou superior. O processador deverá ser acompanhado por cooler compatível com o mesmo, com potência suficiente para resfriamento padrão. Deverá ser aplicada pasta térmica se o fabricante do processador assim o recomendar. Na proposta escrita, deverão ser informados a marca e o modelo do processador ofertado. Clock Máximo de 4.40 GHz ou superior, podendo ser aferido nos núcleos de performance e em carga total. Placa Mãe: Fabricação própria e compatível com o modelo ofertado. Não deve ser produzida em regime de OEM. Chip de segurança TPM versão 2.0 (ou superior) integrado para criptografia. Possuir dois slots padrão PCIE M.2 GEN 4 ou superior para discos NVME. Deve possuir slots e conexões para os dispositivos elencados neste termo de referência. Na proposta escrita, deverão ser informados a marca e o modelo da placa mãe ofertada a ser fornecida. Chipset: Deverá possuir suporte a expansão de memória de, no mínimo, 32 GB em dual channel ou superior; Deverá possuir suporte de memória do tipo: DDR5 4800 MHz ou barramento superior. Suporte a controladora de disco padrão NVME. Possuir suporte a configurações de memória de canal duplo (dual channel memory) para um melhor desempenho. Memória 8 GB RAM DDR5 ou Superior. Deve possuir 01(um) módulo de 8 GB RAM. Memória ram (Randon Access Memory) DDR5 4800 MHz ou superior. A memória não pode ser soldada diretamente na placa mãe. BIOS: Possibilidade de proteção da configuração por meio de senha (password) contida na própria memória de configuração da motherboard. A BIOS uefi deverá estar gravada em memória do tipo “flash” ou equivalente que permita a sua fácil atualização diretamente através do microcomputador, sem a necessidade de remoção ou apagamento (como no caso das Eprom). A configuração da máquina deverá ser alterável e mantida através de bateria (recarregável ou não) ou método equivalente (memória flash, eprom ou outra solução similar) montada sobre a própria motherboard. A bios UEFI deverá permitir atualização via software. Caso haja interrupção da energia durante a atualização, a bios deverá ser recuperada automaticamente para versão anterior ou ser possível recuperá-la online através de solução ofertada pelo fabricante, não podendo ser o equipamento inutilizado. As atualizações da bios uefi deverão ser disponibilizadas, através do site www ou ftp do fabricante da placa mãe. Assas atualizações, se ocorrerem, deverão ser gratuitas. suporte para o modo de economia de energia. Suporte ao sistema de gerenciamento dmi (desktop management interface) em sua v.2.0 ou mais recente. Deverá ter suporte ao idioma inglês e/ou português. Deverá ser fornecida solução que permita salvar as configurações de bios do equipamento em um arquivo executável/script para distribuição da configuração para equipamentos da mesma marca/modelo, independente de senha; Slots e portas de comunicação: portas usb: Mínimo de 06 (seis) portas usb; uma porta usb 3.2 tipo-c frontal. Não será permitido uso de “hub” usb externo. Conectores de áudio (line-in, line-out, mic in), sendo permitido conector combo (line-out, mic-in). Portas de vídeo: Mínimo de 02 (duas) portas de vídeo: 01 (uma) porta padrão hdmi; 01 (uma) porta padrão vga; Não será aceito adaptador para o padrão VGA; Deverá possuir 2 (dois) slots PCIE Gen 4 ou superior para conexão unidade de estado sólido padrão m.2 nvme. Controladora de disco: Controladora de unidade de discos padrão PCIE M.2 NVME; Interface de vídeo: Memória gráfica de, no mínimo, 256 mb com alocação dinâmica de memória ram. Resolução gráfica analógica de: 1920 x 1080 pixels ou superior. Suporte a directx versão 12 ou superior. Unidade de armazenamento: Unidade de estado sólido M.2 NVME de, no mínimo, 256 GB, velocidade de escrita e leitura superior a 2000MB/s; Na proposta escrita, deverão ser informados a marca e o modelo do disco rígido. Interface de rede: 01 (uma) interface de rede gigabit, com total compatibilidade com rede ethernet - padrões ieee 802.2 e 802.3. taxa de transmissão de 10mbps-half duplex, 10mbps-full duplex/100mbps- half duplex, 100MBPS full duplex e 1000MBPS full duplex (gigabit). Barramento de sistema para comunicação, tipo pci-express, podendo ser interno ao chipset ou placa mãe, dispensado o uso de slot PCIE. Suporte a função wake on lan. Interface de som: “on-board”, padrão plug-and-play. O equipamento deve possuir alto-falante interno capaz de reproduzir sons do sistema operacional; Mouse: mouse óptico, compatível com o microsoft mouse, com pelo menos 1600 dpi de sensibilidade, com 2 (dois) botões e rolete emborrachado de scroll, em conector usb, compatível com a interface ofertada na motherboard do equipamento. tapete (mousepad) para mouse. cor predominante preta. Não será aceito mouse tipo mini. Teclado: Compatível com o teclado ibm-pc/at, com layout abnt2. com, no mínimo, 101 teclas, padrão qwerty; teclas alfanuméricas, de função (f1 a f12), numéricas e de movimentação de cursor independentes. com conector usb compatível com a interface ofertada na motherboard do equipamento. com possibilidade de ajuste da inclinação. Com indicadores (led’s) de num lock, caps lock e scroll lock. Cor predominante preta. Gabinete: Padrão micro-pc possuir local para uso de cadeado ou lacre para evitar acessos indevidos ao interior do gabinete. Possuir botão liga/desliga frontal com função dupla: liga/desliga e standby/sleep. Possuir indicadores liga/desliga e disco rígido na parte frontal. Cor preta. Fonte de alimentação: Tensão de entrada de 100 – 240 volts automática, com proteção contra variação de tensão na rede. Softwares: Licença de uso de software individual por microcomputador Windows 11 pro original 64 bits instalado, em português, A chave da licença (bios oem key) do sistema operacional microsoft windows deverá estar gravada na bios do equipamento. deverá ser fornecida solução para reinstalação do sistema operacional. serão aceitas as seguintes soluções: disco usb que instale o sistema operacional e drivers do equipamento com proteção de gravação. deverá ser entregue uma unidade para cada 5 equipamentos, sendo no mínimo duas unidades por local de entrega. solução de reinstalação do sistema operacional e drivers acessível através da bios do equipamento com conexão à internet, sem necessidade de disco usb externo. Garantia mínima de 03 anos com as seguintes características: O período de garantia será contado a partir da data da emissão do termo de aceite final dos equipamentos, não inferior a 03 (três) anos, sendo os atendimentos prestados no local de instalação e utilização dos computadores no município de campinas. caso a empresa proponente ofereça prazo de garantia superior ao exigido no item acima, deverá indicá-lo na proposta. A garantia, suporte técnico e a manutenção de hardware dos equipamentos serão de responsabilidade da fabricante, abrangendo a solução de problemas ocasionados pelo mau funcionamento e defeitos apresentados, sendo responsáveis pelo reparo e substituição de peças defeituosas por outra nova, de performance equivalente ou superior. Durante o período de garantia, a manutenção de hardware dos equipamentos e dispositivos que integram o equipamento, inclusive teclado e mouse, será de responsabilidade da fabricante dispondo do prazo máximo de 05 (cinco) dias úteis para a solução do problema, contados da abertura do chamado. Em caso de identificação de problemas generalizados de hardware, tais como defeitos de fabricação, incompatibilidade de drivers, entre outros, a fabricante deverá providenciar a correção do problema em até 05 (cinco) dias úteis contados do registro da ocorrência ou substituição em até 07 (sete) dias úteis. Caso algum equipamento apresente reincidência de problemas, a contratante poderá exigir sua substituição, que deverá ocorrer em até 05 (cinco) dias úteis a partir da data do registro da segunda ocorrência. A contratada deverá indicar o canal de atendimento da assistência técnica a ser prestado pela fabricante. Os chamados para solução de problemas com os equipamentos deverão receber um número para acompanhamento do usuário e deverão ter a resolução em até 3 dias úteis, com atendimento no local de trabalho do servidor público. durante o período de garantia a contratante poderá abrir e substituir os componentes internos (ex.: placas pci, disco, memória, etc) sem perda da garantia do equipamento, sem autorização do fabricante. neste caso, a garantia será restringida apenas aos itens fornecidos pelo fabricante. a garantia deverá possuir atendimento remoto telefônico com técnicos especializados das 8:00 às 20:00 para abertura de chamado e diagnóstico remoto. caso o problema não seja resolvido remotamente, o atendimento deverá ocorrer no local de instalação dos equipamentos em dias úteis das 8:00 às 18:00. deverá der fornecida solução que permita acompanhar e distribuir a atualização de drivers, firmwares e bios de forma centralizada para gerenciamento da política de segurança e atualização; deverá ser fornecido portal com acesso seguro que permita aos técnicos da FUERN, abertura de chamados em garantia de forma on-line e acompanhamento, sem a necessidade de ligação telefônica\call center; Deverá ser fornecida solução que permita medir o histórico de uso dos componentes do equipamento como memória, disco, processador e identificar softwares utilizados e que impactam na performance do equipamento.</t>
+  </si>
+  <si>
+    <t>Computador Tipo 2. Computador desktop de uso corporativo, novo e sem uso anterior; Processador: 64 Bits Intel i5 14500 vPRO similar ou superior, considerando realização de benchmark de desempenho, devendo ser o respectivo desempenho igual ou superior ao referenciado; Deverá possuir suporte para barramento DDR5 ou superior. O processador deverá ser acompanhado por cooler compatível com o mesmo, com potência suficiente para resfriamento padrão. Deverá ser aplicada pasta térmica se o fabricante do processador assim o recomendar. Na proposta escrita, deverão ser informados a marca e o modelo do processador ofertado. Placa Mãe: Fabricação própria e compatível com o modelo ofertado. Não deve ser produzida em regime de oem. Chip de segurança TPM versão 2.0 (ou superior) integrado para criptografia. Possuir dois slots padrão PCIE M.2 GEN 4 ou superior para discos NVME. Deve possuir slots e conexões para os dispositivos elencados neste termo de referência. Na proposta escrita, deverão ser informados a marca e o modelo da placa mãe ofertada a ser fornecida. Chipset: Deverá possuir suporte a expansão de memória de, no mínimo, 32 gb em dual channel ou superior; Deverá possuir suporte de memória do tipo: DDR5 4800 MHz ou barramento superior. Suporte a controladora de disco padrão NVME. Possuir suporte a configurações de memória de canal duplo (dual channel memory) para um melhor desempenho. Memória 16 GB RAM DDR5 ou Superior. Deve possuir 02(dois) módulos de 8 GB RAM. Memória ram (randon access memory) DDR5 4800 MHz ou superior. A memória não pode ser soldada diretamente na placa mãe. BIOS: Possibilidade de proteção da configuração por meio de senha (password) contida na própria memória de configuração da motherboard. A BIOS uefi deverá estar gravada em memória do tipo “flash” ou equivalente que permita a sua fácil atualização diretamente através do microcomputador, sem a necessidade de remoção ou apagamento (como no caso das Eprom). A configuração da máquina deverá ser alterável e mantida através de bateria (recarregável ou não) ou método equivalente (memória flash, eprom ou outra solução similar) montada sobre a própria motherboard. A bios uefi deverá permitir atualização via software. Caso haja interrupção da energia durante a atualização, a bios deverá ser recuperada automaticamente para versão anterior ou ser possível recuperá-la online através de solução ofertada pelo fabricante, não podendo ser o equipamento inutilizado. As atualizações da bios uefi deverão ser disponibilizadas, através do site www ou ftp do fabricante da placa mãe. Assas atualizações, se ocorrerem, deverão ser gratuitas. suporte para o modo de economia de energia. Suporte ao sistema de gerenciamento dmi (desktop management interface) em sua v.2.0 ou mais recente. Deverá ter suporte ao idioma inglês e/ou português. Deverá ser fornecida solução que permita salvar as configurações de bios do equipamento em um arquivo executável/script para distribuição da configuração para equipamentos da mesma marca/modelo, independente de senha; Slots e portas de comunicação: portas usb: Mínimo de 06 (seis) portas usb; uma porta usb 3.2 tipo-c frontal. Não será permitido uso de “hub” usb externo. Conectores de áudio (line-in, line-out, mic in), sendo permitido conector combo (line-out, mic-in). Portas de vídeo: Mínimo de 02 (duas) portas de vídeo: 01 (uma) porta padrão HDMI; 01 (uma) porta padrão VGA; Não será aceito adaptador para o padrão VGA; Deverá possuir 2 (dois) slots PCIE Gen 4 ou superior para conexão unidade de estado sólido padrão m.2 nvme. Controladora de disco: Controladora de unidade de discos padrão PCIE M.2 NVME; Interface de vídeo: Memória gráfica de, no mínimo, 256 mb com alocação dinâmica de memória ram. Resolução gráfica analógica de: 1920 x 1080 pixels ou superior. Suporte a directx versão 12 ou superior. Unidade de armazenamento: Unidade de estado sólido M.2 NVME de, no mínimo, 512 GB, velocidade de escrita e leitura superior a 2000MB/s; Na proposta escrita, deverão ser informados a marca e o modelo do disco rígido. Interface de rede: 01 (uma) interface de rede gigabit, com total compatibilidade com rede ethernet - padrões ieee 802.2 e 802.3. taxa de transmissão de 10mbps-half duplex, 10mbps-full duplex/100mbps- half duplex, 100MBPS full duplex e 1000MBPS full duplex (gigabit). Barramento de sistema para comunicação, tipo pci-express, podendo ser interno ao chipset ou placa mãe, dispensado o uso de slot PCIE. Suporte a função wake on lan. Interface de som: “on-board”, padrão plug-and-play. O equipamento deve possuir alto-falante interno capaz de reproduzir sons do sistema operacional; Mouse: mouse óptico, compatível com o microsoft mouse, com pelo menos 1600 dpi de sensibilidade, com 2 (dois) botões e rolete emborrachado de scroll, em conector usb, compatível com a interface ofertada na motherboard do equipamento. tapete (mousepad) para mouse. cor predominante preta. Não será aceito mouse tipo mini. Teclado: Compatível com o teclado ibm-pc/at, com layout abnt2. com, no mínimo, 101 teclas, padrão qwerty; teclas alfanuméricas, de função (f1 a f12), numéricas e de movimentação de cursor independentes. com conector usb compatível com a interface ofertada na motherboard do equipamento. com possibilidade de ajuste da inclinação. Com indicadores (led’s) de num lock, caps lock e scroll lock. Cor predominante preta. Gabinete: Padrão micro-pc possuir local para uso de cadeado ou lacre para evitar acessos indevidos ao interior do gabinete. Possuir botão liga/desliga frontal com função dupla: liga/desliga e standby/sleep. Possuir indicadores liga/desliga e disco rígido na parte frontal. Cor preta. Fonte de alimentação: Tensão de entrada de 100 – 240 volts automática, com proteção contra variação de tensão na rede. Softwares: Licença de uso de software individual por microcomputador windows 11 pro original 64 bits instalado, em português, elegível para downgrade para windows 10 pro. a chave da licença (bios oem key) do sistema operacional microsoft windows deverá estar gravada na bios do equipamento. deverá ser fornecida solução para reinstalação do sistema operacional. serão aceitas as seguintes soluções: disco usb que instale o sistema operacional e drivers do equipamento com proteção de gravação. deverá ser entregue uma unidade para cada 5 equipamentos, sendo no mínimo duas unidades por local de entrega. solução de reinstalação do sistema operacional e drivers acessível através da bios do equipamento com conexão à internet, sem necessidade de disco usb externo. Garantia mínima de 03 anos com as seguintes características: O período de garantia será contado a partir da data da emissão do termo de aceite final dos equipamentos, não inferior a 03(três) anos, sendo os atendimentos prestados no local de instalação e utilização dos computadores no município de campinas. caso a empresa proponente ofereça prazo de garantia superior ao exigido no item acima, deverá indicá-lo na proposta. A garantia, suporte técnico e a manutenção de hardware dos equipamentos serão de responsabilidade da fabricante, abrangendo a solução de problemas ocasionados pelo mau funcionamento e defeitos apresentados, sendo responsáveis pelo reparo e substituição de peças defeituosas por outra nova, de performance equivalente ou superior. Durante o período de garantia, a manutenção de hardware dos equipamentos e dispositivos que integram o equipamento, inclusive teclado e mouse, será de responsabilidade da fabricante dispondo do prazo máximo de 05 (cinco) dias úteis para a solução do problema, contados da abertura do chamado. Em caso de identificação de problemas generalizados de hardware, tais como defeitos de fabricação, incompatibilidade de drivers, entre outros, a fabricante deverá providenciar a correção do problema em até 05 (cinco) dias úteis contados do registro da ocorrência ou substituição em até 07 (sete) dias úteis. Caso algum equipamento apresente reincidência de problemas, a contratante poderá exigir sua substituição, que deverá ocorrer em até 05 (cinco) dias úteis a partir da data do registro da segunda ocorrência. A contratada deverá indicar o canal de atendimento da assistência técnica a ser prestado pela fabricante. Os chamados para solução de problemas com os equipamentos deverão receber um número para acompanhamento do usuário e deverão ter a resolução em até 3 dias úteis, com atendimento no local de trabalho do servidor público. durante o período de garantia a contratante poderá abrir e substituir os componentes internos (ex.: placas pci, disco, memória, etc) sem perda da garantia do equipamento, sem autorização do fabricante. neste caso, a garantia será restringida apenas aos itens fornecidos pelo fabricante. a garantia deverá possuir atendimento remoto telefônico com técnicos especializados das 8:00 às 20:00 para abertura de chamado e diagnóstico remoto. caso o problema não seja resolvido remotamente, o atendimento deverá ocorrer no local de instalação dos equipamentos em dias úteis das 8:00 às 18:00. deverá der fornecida solução que permita acompanhar e distribuir a atualização de drivers, firmwares e bios de forma centralizada para gerenciamento da política de segurança e atualização; deverá ser fornecido portal com acesso seguro que permita aos técnicos da FUERN, abertura de chamados em garantia de forma on-line e acompanhamento, sem a necessidade de ligação telefônica\call center; Deverá ser fornecida solução que permita medir o histórico de uso dos componentes do equipamento como memória, disco, processador e identificar softwares utilizados e que impactam na performance do equipamento.</t>
+  </si>
+  <si>
+    <t>Computador Tipo 3. Computador desktop de uso corporativo, novo e sem uso anterior; Processador: 64 Bits Intel i7 14700 ou superior(14º Geração ou mais recente ) ou similar, considerando</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1301,20 +911,20 @@
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" t="s">
-        <v>221</v>
+      <c r="E2">
+        <v>204.36</v>
+      </c>
+      <c r="F2">
+        <v>817.4400000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1330,20 +940,20 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" t="s">
-        <v>222</v>
+      <c r="E3">
+        <v>560.46</v>
+      </c>
+      <c r="F3">
+        <v>1681.38</v>
       </c>
       <c r="G3" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I3" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1359,20 +969,20 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" t="s">
-        <v>223</v>
+      <c r="E4">
+        <v>3521.21</v>
+      </c>
+      <c r="F4">
+        <v>14084.84</v>
       </c>
       <c r="G4" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H4" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I4" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1388,20 +998,20 @@
       <c r="D5">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" t="s">
-        <v>224</v>
+      <c r="E5">
+        <v>826.24</v>
+      </c>
+      <c r="F5">
+        <v>6609.92</v>
       </c>
       <c r="G5" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1417,20 +1027,20 @@
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" t="s">
-        <v>225</v>
+      <c r="E6">
+        <v>810.39</v>
+      </c>
+      <c r="F6">
+        <v>3241.56</v>
       </c>
       <c r="G6" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H6" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I6" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1446,20 +1056,20 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" t="s">
-        <v>226</v>
+      <c r="E7">
+        <v>12875.47</v>
+      </c>
+      <c r="F7">
+        <v>25750.94</v>
       </c>
       <c r="G7" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H7" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I7" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1470,25 +1080,25 @@
         <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" t="s">
-        <v>227</v>
+      <c r="E8">
+        <v>38058.75</v>
+      </c>
+      <c r="F8">
+        <v>76117.5</v>
       </c>
       <c r="G8" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H8" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I8" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1499,25 +1109,25 @@
         <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" t="s">
-        <v>228</v>
+      <c r="E9">
+        <v>9844.9</v>
+      </c>
+      <c r="F9">
+        <v>19689.8</v>
       </c>
       <c r="G9" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I9" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1528,25 +1138,25 @@
         <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" t="s">
-        <v>229</v>
+      <c r="E10">
+        <v>3994.94</v>
+      </c>
+      <c r="F10">
+        <v>23969.64</v>
       </c>
       <c r="G10" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1557,25 +1167,25 @@
         <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" t="s">
-        <v>230</v>
+      <c r="E11">
+        <v>8875</v>
+      </c>
+      <c r="F11">
+        <v>17750</v>
       </c>
       <c r="G11" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H11" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I11" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1586,25 +1196,25 @@
         <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" t="s">
-        <v>231</v>
+      <c r="E12">
+        <v>558.73</v>
+      </c>
+      <c r="F12">
+        <v>1117.46</v>
       </c>
       <c r="G12" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I12" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1615,25 +1225,25 @@
         <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D13">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" t="s">
-        <v>232</v>
+      <c r="E13">
+        <v>100.69</v>
+      </c>
+      <c r="F13">
+        <v>1611.04</v>
       </c>
       <c r="G13" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I13" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1644,25 +1254,25 @@
         <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D14">
         <v>112</v>
       </c>
-      <c r="E14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" t="s">
-        <v>233</v>
+      <c r="E14">
+        <v>1378.91</v>
+      </c>
+      <c r="F14">
+        <v>154437.92</v>
       </c>
       <c r="G14" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H14" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I14" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1673,25 +1283,25 @@
         <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D15">
         <v>112</v>
       </c>
-      <c r="E15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F15" t="s">
-        <v>234</v>
+      <c r="E15">
+        <v>1720.34</v>
+      </c>
+      <c r="F15">
+        <v>192678.08</v>
       </c>
       <c r="G15" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H15" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I15" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1702,25 +1312,25 @@
         <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D16">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" t="s">
-        <v>235</v>
+      <c r="E16">
+        <v>492.52</v>
+      </c>
+      <c r="F16">
+        <v>19700.8</v>
       </c>
       <c r="G16" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H16" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I16" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1731,25 +1341,25 @@
         <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D17">
         <v>30</v>
       </c>
-      <c r="E17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" t="s">
-        <v>236</v>
+      <c r="E17">
+        <v>550</v>
+      </c>
+      <c r="F17">
+        <v>16500</v>
       </c>
       <c r="G17" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H17" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I17" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1760,25 +1370,25 @@
         <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
-      <c r="E18" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" t="s">
-        <v>237</v>
+      <c r="E18">
+        <v>1658.4</v>
+      </c>
+      <c r="F18">
+        <v>8292</v>
       </c>
       <c r="G18" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H18" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I18" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1789,25 +1399,25 @@
         <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" t="s">
-        <v>238</v>
+      <c r="E19">
+        <v>9539.129999999999</v>
+      </c>
+      <c r="F19">
+        <v>19078.26</v>
       </c>
       <c r="G19" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H19" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I19" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1818,25 +1428,25 @@
         <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D20">
         <v>10</v>
       </c>
-      <c r="E20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" t="s">
-        <v>239</v>
+      <c r="E20">
+        <v>318</v>
+      </c>
+      <c r="F20">
+        <v>3180</v>
       </c>
       <c r="G20" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H20" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I20" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1847,25 +1457,25 @@
         <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F21" t="s">
-        <v>240</v>
+      <c r="E21">
+        <v>2085.27</v>
+      </c>
+      <c r="F21">
+        <v>4170.54</v>
       </c>
       <c r="G21" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H21" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I21" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1876,25 +1486,25 @@
         <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D22">
         <v>20</v>
       </c>
-      <c r="E22" t="s">
-        <v>179</v>
-      </c>
-      <c r="F22" t="s">
-        <v>241</v>
+      <c r="E22">
+        <v>22.94</v>
+      </c>
+      <c r="F22">
+        <v>458.8</v>
       </c>
       <c r="G22" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H22" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I22" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1905,25 +1515,25 @@
         <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D23">
         <v>10</v>
       </c>
-      <c r="E23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F23" t="s">
-        <v>242</v>
+      <c r="E23">
+        <v>157.08</v>
+      </c>
+      <c r="F23">
+        <v>1570.8</v>
       </c>
       <c r="G23" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H23" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I23" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1934,25 +1544,25 @@
         <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
-      <c r="E24" t="s">
-        <v>181</v>
-      </c>
-      <c r="F24" t="s">
-        <v>243</v>
+      <c r="E24">
+        <v>1254.32</v>
+      </c>
+      <c r="F24">
+        <v>10034.56</v>
       </c>
       <c r="G24" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H24" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I24" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1963,25 +1573,25 @@
         <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" t="s">
-        <v>182</v>
-      </c>
-      <c r="F25" t="s">
-        <v>182</v>
+      <c r="E25">
+        <v>104920.1</v>
+      </c>
+      <c r="F25">
+        <v>104920.1</v>
       </c>
       <c r="G25" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H25" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I25" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1992,25 +1602,25 @@
         <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D26">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
-        <v>183</v>
-      </c>
-      <c r="F26" t="s">
-        <v>244</v>
+      <c r="E26">
+        <v>671.3200000000001</v>
+      </c>
+      <c r="F26">
+        <v>5370.56</v>
       </c>
       <c r="G26" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H26" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I26" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2021,25 +1631,25 @@
         <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D27">
         <v>10</v>
       </c>
-      <c r="E27" t="s">
-        <v>184</v>
-      </c>
-      <c r="F27" t="s">
-        <v>245</v>
+      <c r="E27">
+        <v>5539.9</v>
+      </c>
+      <c r="F27">
+        <v>55399</v>
       </c>
       <c r="G27" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H27" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I27" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2050,25 +1660,25 @@
         <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D28">
         <v>150</v>
       </c>
-      <c r="E28" t="s">
-        <v>185</v>
-      </c>
-      <c r="F28" t="s">
-        <v>246</v>
+      <c r="E28">
+        <v>4712.49</v>
+      </c>
+      <c r="F28">
+        <v>706873.5</v>
       </c>
       <c r="G28" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H28" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I28" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2079,25 +1689,25 @@
         <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D29">
         <v>75</v>
       </c>
-      <c r="E29" t="s">
-        <v>186</v>
-      </c>
-      <c r="F29" t="s">
-        <v>247</v>
+      <c r="E29">
+        <v>7700</v>
+      </c>
+      <c r="F29">
+        <v>577500</v>
       </c>
       <c r="G29" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H29" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I29" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2108,25 +1718,25 @@
         <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D30">
         <v>11</v>
       </c>
-      <c r="E30" t="s">
-        <v>187</v>
-      </c>
-      <c r="F30" t="s">
-        <v>248</v>
+      <c r="E30">
+        <v>15103.67</v>
+      </c>
+      <c r="F30">
+        <v>166140.37</v>
       </c>
       <c r="G30" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H30" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I30" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2139,20 +1749,20 @@
       <c r="D31">
         <v>4</v>
       </c>
-      <c r="E31" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" t="s">
-        <v>249</v>
+      <c r="E31">
+        <v>6516.9</v>
+      </c>
+      <c r="F31">
+        <v>26067.6</v>
       </c>
       <c r="G31" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H31" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I31" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2165,20 +1775,20 @@
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" t="s">
-        <v>189</v>
-      </c>
-      <c r="F32" t="s">
-        <v>250</v>
+      <c r="E32">
+        <v>13737.96</v>
+      </c>
+      <c r="F32">
+        <v>27475.92</v>
       </c>
       <c r="G32" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H32" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I32" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2191,20 +1801,20 @@
       <c r="D33">
         <v>56</v>
       </c>
-      <c r="E33" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" t="s">
-        <v>251</v>
+      <c r="E33">
+        <v>4009.4</v>
+      </c>
+      <c r="F33">
+        <v>224526.4</v>
       </c>
       <c r="G33" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H33" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2217,20 +1827,20 @@
       <c r="D34">
         <v>25</v>
       </c>
-      <c r="E34" t="s">
-        <v>191</v>
-      </c>
-      <c r="F34" t="s">
-        <v>252</v>
+      <c r="E34">
+        <v>5759.65</v>
+      </c>
+      <c r="F34">
+        <v>143991.25</v>
       </c>
       <c r="G34" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H34" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I34" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2243,20 +1853,20 @@
       <c r="D35">
         <v>6</v>
       </c>
-      <c r="E35" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" t="s">
-        <v>253</v>
+      <c r="E35">
+        <v>22714.98</v>
+      </c>
+      <c r="F35">
+        <v>136289.88</v>
       </c>
       <c r="G35" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H35" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I35" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2269,20 +1879,20 @@
       <c r="D36">
         <v>12</v>
       </c>
-      <c r="E36" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" t="s">
-        <v>254</v>
+      <c r="E36">
+        <v>7016.79</v>
+      </c>
+      <c r="F36">
+        <v>84201.48</v>
       </c>
       <c r="G36" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H36" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I36" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2295,20 +1905,20 @@
       <c r="D37">
         <v>90</v>
       </c>
-      <c r="E37" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" t="s">
-        <v>255</v>
+      <c r="E37">
+        <v>1503.89</v>
+      </c>
+      <c r="F37">
+        <v>135350.1</v>
       </c>
       <c r="G37" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H37" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I37" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2321,20 +1931,20 @@
       <c r="D38">
         <v>20</v>
       </c>
-      <c r="E38" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" t="s">
-        <v>256</v>
+      <c r="E38">
+        <v>976.51</v>
+      </c>
+      <c r="F38">
+        <v>19530.2</v>
       </c>
       <c r="G38" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H38" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I38" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2347,20 +1957,20 @@
       <c r="D39">
         <v>120</v>
       </c>
-      <c r="E39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F39" t="s">
-        <v>257</v>
+      <c r="E39">
+        <v>1555.86</v>
+      </c>
+      <c r="F39">
+        <v>186703.2</v>
       </c>
       <c r="G39" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H39" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I39" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2373,20 +1983,20 @@
       <c r="D40">
         <v>24</v>
       </c>
-      <c r="E40" t="s">
-        <v>197</v>
-      </c>
-      <c r="F40" t="s">
-        <v>258</v>
+      <c r="E40">
+        <v>1709.29</v>
+      </c>
+      <c r="F40">
+        <v>41022.96</v>
       </c>
       <c r="G40" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H40" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I40" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2399,20 +2009,20 @@
       <c r="D41">
         <v>12</v>
       </c>
-      <c r="E41" t="s">
-        <v>198</v>
-      </c>
-      <c r="F41" t="s">
-        <v>259</v>
+      <c r="E41">
+        <v>1869.9</v>
+      </c>
+      <c r="F41">
+        <v>22438.8</v>
       </c>
       <c r="G41" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H41" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I41" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2425,20 +2035,20 @@
       <c r="D42">
         <v>12</v>
       </c>
-      <c r="E42" t="s">
-        <v>199</v>
-      </c>
-      <c r="F42" t="s">
-        <v>260</v>
+      <c r="E42">
+        <v>652.47</v>
+      </c>
+      <c r="F42">
+        <v>7829.64</v>
       </c>
       <c r="G42" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H42" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I42" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2451,20 +2061,20 @@
       <c r="D43">
         <v>22</v>
       </c>
-      <c r="E43" t="s">
-        <v>200</v>
-      </c>
-      <c r="F43" t="s">
-        <v>261</v>
+      <c r="E43">
+        <v>155.52</v>
+      </c>
+      <c r="F43">
+        <v>3421.44</v>
       </c>
       <c r="G43" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H43" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I43" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2477,20 +2087,20 @@
       <c r="D44">
         <v>60</v>
       </c>
-      <c r="E44" t="s">
-        <v>201</v>
-      </c>
-      <c r="F44" t="s">
-        <v>262</v>
+      <c r="E44">
+        <v>688.88</v>
+      </c>
+      <c r="F44">
+        <v>41332.8</v>
       </c>
       <c r="G44" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H44" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I44" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2503,20 +2113,20 @@
       <c r="D45">
         <v>4</v>
       </c>
-      <c r="E45" t="s">
-        <v>202</v>
-      </c>
-      <c r="F45" t="s">
-        <v>263</v>
+      <c r="E45">
+        <v>3423.5</v>
+      </c>
+      <c r="F45">
+        <v>13694</v>
       </c>
       <c r="G45" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H45" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I45" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2529,20 +2139,20 @@
       <c r="D46">
         <v>20</v>
       </c>
-      <c r="E46" t="s">
-        <v>203</v>
-      </c>
-      <c r="F46" t="s">
-        <v>264</v>
+      <c r="E46">
+        <v>5538.01</v>
+      </c>
+      <c r="F46">
+        <v>110760.2</v>
       </c>
       <c r="G46" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H46" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I46" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2555,20 +2165,20 @@
       <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47" t="s">
-        <v>204</v>
-      </c>
-      <c r="F47" t="s">
-        <v>265</v>
+      <c r="E47">
+        <v>16471.48</v>
+      </c>
+      <c r="F47">
+        <v>164714.8</v>
       </c>
       <c r="G47" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H47" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I47" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2581,20 +2191,20 @@
       <c r="D48">
         <v>7</v>
       </c>
-      <c r="E48" t="s">
-        <v>205</v>
-      </c>
-      <c r="F48" t="s">
-        <v>266</v>
+      <c r="E48">
+        <v>23717.79</v>
+      </c>
+      <c r="F48">
+        <v>166024.53</v>
       </c>
       <c r="G48" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H48" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I48" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2607,20 +2217,20 @@
       <c r="D49">
         <v>3</v>
       </c>
-      <c r="E49" t="s">
-        <v>206</v>
-      </c>
-      <c r="F49" t="s">
-        <v>267</v>
+      <c r="E49">
+        <v>10564.33</v>
+      </c>
+      <c r="F49">
+        <v>31692.99</v>
       </c>
       <c r="G49" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H49" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I49" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2633,20 +2243,20 @@
       <c r="D50">
         <v>2</v>
       </c>
-      <c r="E50" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" t="s">
-        <v>268</v>
+      <c r="E50">
+        <v>67174.2</v>
+      </c>
+      <c r="F50">
+        <v>134348.4</v>
       </c>
       <c r="G50" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H50" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I50" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2659,20 +2269,20 @@
       <c r="D51">
         <v>4</v>
       </c>
-      <c r="E51" t="s">
-        <v>208</v>
-      </c>
-      <c r="F51" t="s">
-        <v>269</v>
+      <c r="E51">
+        <v>41473.08</v>
+      </c>
+      <c r="F51">
+        <v>165892.32</v>
       </c>
       <c r="G51" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H51" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I51" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2685,20 +2295,20 @@
       <c r="D52">
         <v>10</v>
       </c>
-      <c r="E52" t="s">
-        <v>209</v>
-      </c>
-      <c r="F52" t="s">
-        <v>270</v>
+      <c r="E52">
+        <v>1694.06</v>
+      </c>
+      <c r="F52">
+        <v>16940.6</v>
       </c>
       <c r="G52" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H52" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I52" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2711,20 +2321,20 @@
       <c r="D53">
         <v>4</v>
       </c>
-      <c r="E53" t="s">
-        <v>210</v>
-      </c>
-      <c r="F53" t="s">
-        <v>271</v>
+      <c r="E53">
+        <v>171.1</v>
+      </c>
+      <c r="F53">
+        <v>684.4</v>
       </c>
       <c r="G53" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H53" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I53" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2737,20 +2347,20 @@
       <c r="D54">
         <v>2</v>
       </c>
-      <c r="E54" t="s">
-        <v>211</v>
-      </c>
-      <c r="F54" t="s">
-        <v>272</v>
+      <c r="E54">
+        <v>1529.99</v>
+      </c>
+      <c r="F54">
+        <v>3059.98</v>
       </c>
       <c r="G54" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H54" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I54" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2763,20 +2373,20 @@
       <c r="D55">
         <v>6</v>
       </c>
-      <c r="E55" t="s">
-        <v>212</v>
-      </c>
-      <c r="F55" t="s">
-        <v>273</v>
+      <c r="E55">
+        <v>4303.68</v>
+      </c>
+      <c r="F55">
+        <v>25822.08</v>
       </c>
       <c r="G55" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H55" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I55" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2789,20 +2399,20 @@
       <c r="D56">
         <v>2</v>
       </c>
-      <c r="E56" t="s">
-        <v>213</v>
-      </c>
-      <c r="F56" t="s">
-        <v>274</v>
+      <c r="E56">
+        <v>252.24</v>
+      </c>
+      <c r="F56">
+        <v>504.48</v>
       </c>
       <c r="G56" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H56" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I56" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2815,20 +2425,20 @@
       <c r="D57">
         <v>3</v>
       </c>
-      <c r="E57" t="s">
-        <v>214</v>
-      </c>
-      <c r="F57" t="s">
-        <v>275</v>
+      <c r="E57">
+        <v>5113.01</v>
+      </c>
+      <c r="F57">
+        <v>15339.03</v>
       </c>
       <c r="G57" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H57" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I57" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2841,20 +2451,20 @@
       <c r="D58">
         <v>2</v>
       </c>
-      <c r="E58" t="s">
-        <v>215</v>
-      </c>
-      <c r="F58" t="s">
-        <v>276</v>
+      <c r="E58">
+        <v>4385.22</v>
+      </c>
+      <c r="F58">
+        <v>8770.440000000001</v>
       </c>
       <c r="G58" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H58" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I58" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2867,20 +2477,20 @@
       <c r="D59">
         <v>2</v>
       </c>
-      <c r="E59" t="s">
-        <v>216</v>
-      </c>
-      <c r="F59" t="s">
-        <v>277</v>
+      <c r="E59">
+        <v>8528.18</v>
+      </c>
+      <c r="F59">
+        <v>17056.36</v>
       </c>
       <c r="G59" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H59" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I59" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2893,20 +2503,20 @@
       <c r="D60">
         <v>2</v>
       </c>
-      <c r="E60" t="s">
-        <v>217</v>
-      </c>
-      <c r="F60" t="s">
-        <v>278</v>
+      <c r="E60">
+        <v>2784</v>
+      </c>
+      <c r="F60">
+        <v>5568</v>
       </c>
       <c r="G60" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H60" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I60" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2919,20 +2529,20 @@
       <c r="D61">
         <v>2</v>
       </c>
-      <c r="E61" t="s">
-        <v>218</v>
-      </c>
-      <c r="F61" t="s">
-        <v>279</v>
+      <c r="E61">
+        <v>982.6799999999999</v>
+      </c>
+      <c r="F61">
+        <v>1965.36</v>
       </c>
       <c r="G61" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H61" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I61" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2945,20 +2555,20 @@
       <c r="D62">
         <v>6</v>
       </c>
-      <c r="E62" t="s">
-        <v>219</v>
-      </c>
-      <c r="F62" t="s">
-        <v>280</v>
+      <c r="E62">
+        <v>13439.41</v>
+      </c>
+      <c r="F62">
+        <v>80636.45999999999</v>
       </c>
       <c r="G62" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H62" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I62" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2971,20 +2581,20 @@
       <c r="D63">
         <v>4</v>
       </c>
-      <c r="E63" t="s">
-        <v>220</v>
-      </c>
-      <c r="F63" t="s">
-        <v>281</v>
+      <c r="E63">
+        <v>42120</v>
+      </c>
+      <c r="F63">
+        <v>168480</v>
       </c>
       <c r="G63" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H63" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I63" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2997,20 +2607,20 @@
       <c r="D64">
         <v>38</v>
       </c>
-      <c r="E64" t="s">
-        <v>171</v>
-      </c>
-      <c r="F64" t="s">
-        <v>282</v>
+      <c r="E64">
+        <v>1378.91</v>
+      </c>
+      <c r="F64">
+        <v>52398.58</v>
       </c>
       <c r="G64" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H64" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I64" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3023,20 +2633,20 @@
       <c r="D65">
         <v>38</v>
       </c>
-      <c r="E65" t="s">
-        <v>172</v>
-      </c>
-      <c r="F65" t="s">
-        <v>283</v>
+      <c r="E65">
+        <v>1720.34</v>
+      </c>
+      <c r="F65">
+        <v>65372.92</v>
       </c>
       <c r="G65" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H65" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I65" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3049,20 +2659,20 @@
       <c r="D66">
         <v>50</v>
       </c>
-      <c r="E66" t="s">
-        <v>185</v>
-      </c>
-      <c r="F66" t="s">
-        <v>284</v>
+      <c r="E66">
+        <v>4712.49</v>
+      </c>
+      <c r="F66">
+        <v>235624.5</v>
       </c>
       <c r="G66" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H66" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I66" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3075,20 +2685,20 @@
       <c r="D67">
         <v>25</v>
       </c>
-      <c r="E67" t="s">
-        <v>186</v>
-      </c>
-      <c r="F67" t="s">
-        <v>285</v>
+      <c r="E67">
+        <v>7700</v>
+      </c>
+      <c r="F67">
+        <v>192500</v>
       </c>
       <c r="G67" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H67" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I67" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3101,20 +2711,20 @@
       <c r="D68">
         <v>4</v>
       </c>
-      <c r="E68" t="s">
-        <v>187</v>
-      </c>
-      <c r="F68" t="s">
-        <v>286</v>
+      <c r="E68">
+        <v>15103.67</v>
+      </c>
+      <c r="F68">
+        <v>60414.68</v>
       </c>
       <c r="G68" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H68" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I68" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3127,20 +2737,20 @@
       <c r="D69">
         <v>19</v>
       </c>
-      <c r="E69" t="s">
-        <v>190</v>
-      </c>
-      <c r="F69" t="s">
-        <v>287</v>
+      <c r="E69">
+        <v>4009.4</v>
+      </c>
+      <c r="F69">
+        <v>76178.60000000001</v>
       </c>
       <c r="G69" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H69" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I69" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3153,20 +2763,20 @@
       <c r="D70">
         <v>3</v>
       </c>
-      <c r="E70" t="s">
-        <v>192</v>
-      </c>
-      <c r="F70" t="s">
-        <v>288</v>
+      <c r="E70">
+        <v>22714.98</v>
+      </c>
+      <c r="F70">
+        <v>68144.94</v>
       </c>
       <c r="G70" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H70" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I70" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3179,20 +2789,20 @@
       <c r="D71">
         <v>3</v>
       </c>
-      <c r="E71" t="s">
-        <v>205</v>
-      </c>
-      <c r="F71" t="s">
-        <v>289</v>
+      <c r="E71">
+        <v>23717.79</v>
+      </c>
+      <c r="F71">
+        <v>71153.37</v>
       </c>
       <c r="G71" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H71" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I71" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3205,20 +2815,20 @@
       <c r="D72">
         <v>2</v>
       </c>
-      <c r="E72" t="s">
-        <v>220</v>
-      </c>
-      <c r="F72" t="s">
-        <v>290</v>
+      <c r="E72">
+        <v>42120</v>
+      </c>
+      <c r="F72">
+        <v>84240</v>
       </c>
       <c r="G72" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H72" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="I72" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/EDITAIS/U_925543_E_900342025_15-10-2025_14h00m/U_925543_E_900342025_15-10-2025_14h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_925543_E_900342025_15-10-2025_14h00m/U_925543_E_900342025_15-10-2025_14h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="140">
   <si>
     <t>Nº</t>
   </si>
@@ -412,205 +412,19 @@
     <t>Estante rack Estante Rack Padrão: 19 X 42u, Estrutura: Aço, Portas: Frontais, Laterais E Traseiras Removíveis, Cor: Preta, Acabamento Superficial: Pintura Em Epóxi, Aplicação: Rede De Informática</t>
   </si>
   <si>
-    <t>Bloco de Iluminação de Emergência Autônomo Branco, similar ou superior ao BLA 1200</t>
-  </si>
-  <si>
-    <t>E-reader Tela de 6” (15,2 cm) om luz integrada, resolução de 300 ppi, tecnologia de fonte otimizada e escala de cinza com 16 níveis, 157,8 x 108,6 x 8,0 mm, com 16gb de memória.Garantia não inferior a 1 ano</t>
-  </si>
-  <si>
-    <t>Fragmentadora de papel com capacidade de no mínimo 10 folhas por vez, capacidade de fragmentar grampos. Garantia mínima de 01 ano.</t>
-  </si>
-  <si>
-    <t>Tela de Projeção Retrátil Manual Formato 4:3. Dimensões aproximadas da tela: 200 x 150 cm. Mecanismo automatico de enrolamento com parada multiponto. Fixação teto/parede. Caixa externa 100% alumínio com pintura eletrostática de alta resistência.Tela com tecido matt-white lavável e resistente a umidade. Garatia minima de 12 meses.</t>
-  </si>
-  <si>
-    <t>Smartphone Especificações: Motorola Moto G04s 128GB Coral Tela 6,6" Câmera 50MP Selfie 5MP Dual Chip Android 14. Similar ou superior.Garantia não inferior a 1 ano</t>
-  </si>
-  <si>
-    <t>Drone DJI Mini 4 Pro Fly More Combo Plus DJI RC 2 DJI044 similar ou superior (Com tela) (BR). Com garantia mínima de 01 ano.</t>
-  </si>
-  <si>
-    <t>Drone DJI Mavic 3 Pro Fly More Combo (Com tela e saída HDMI) BR, similar técnico ou superior. Deve possuir uma câmera Hasselblad L2D-20c com resolução de 20 megapixels ou similar técnico de descrição igual ou superior. Além de um sensor CMOS de 4/3 de polegada, capaz de gravar vídeos em 5.1K a 50fps e 4K a 120fps. A câmera deve possuir abertura ajustável de f/2.8 a f/11, permitindo flexibilidade em diversas condições de iluminação. Garantia: não inferior a 1(um) ano a partir da data de fornecimento dequipamento</t>
-  </si>
-  <si>
-    <t>Drone de câmera voadora com gimbal integrado. Peso aproximado incluindo bateria e hélices de 1380 g; velocidade de subida de pelo menos 6m/s; teto máximo de serviço acima do nível do mar de pelo menos 6.000 m; resistir à vento de velocidade 10 m/s; tempo de voo de pelo menos 28 minutos; mínimo de faixa de temperatura operacional 0 a 40°C; sistemas de posicionamento por satélite GPS / GLONASS; sistema de visão para a frente e sistema de visão para baixo; mínimo de alcance Sensorial de obstáculo 0,7 a 15 m; mínimo de freqüência de medição Para frente de 10 Hz, para baixo de 20 Hz; bateria com mínimo de capacidade de 5350 mA; cÂMERA Sensor 1 / 2,3 "CMOS mínimo de Efetivos pixels de 12,4 M; Lente com formato equivalente a 35 mm, f / 2.8 foco em 8, faixa ISO 100- 3200 (vídeo) 100-1600 (foto), velocidade mínima do obturador eletrônico 8-1/8000 s, produzir tamanho da imagem 4000 × 3000, Taxa de bits máxima de vídeo 60 Mbps. Sistemas de arquivos suportados FAT32 (=32 GB); exFAT (32 GB). Foto JPEG, DNG. Garantia não inferior a 1 ano</t>
-  </si>
-  <si>
-    <t>Lousa Interativa Digital Touch Screen Color 82 polegadas. Marca de Referência Unionboard, similar ou superior.</t>
-  </si>
-  <si>
-    <t>Kit Scanner 3D portátil com precisão de 0,05mm para uso em peças de pequeno e médio porte. Compatível com sistema Windows, IOS, Mac OS, Android e IOS. Acompanha Scanner 3 D; case acolchoada; tripé; mesa giratória; adaptador de encaixe rápido; cabo USB C; suporte para Smartphones e iPhone; cabo para smartphones 2 em 1; adesivo para fixação de objetos blu tack; adesivos marcadores (markers); lona plástica preta para controle de iluminação.</t>
-  </si>
-  <si>
-    <t>Scanner portátil de documentos Scanner A4 de livros Formato JPG e PDF 300/600/900 DPI. Garantia não inferior a 1 ano</t>
-  </si>
-  <si>
-    <t>Adaptador PoE +, U-PoE-at (PoE+ 30W). Entrega até 30W de PoE+, Compatível com o U6-Mesh, com a câmera G4 P. Garantia não inferior a 1 ano</t>
-  </si>
-  <si>
-    <t>Ubiquiti Unifi Access Point U6 Mesh Pro Access Point Wi-Fi 6 de alto desempenho. Obs: A necessidade de aquisição dos equipamentos supracitados da forma como foi descrito. Se dá, em virtude da necessidade de padronização de interfaces na UERN, tendo em vista a aquisição anterior de equipamentos de mesma característica/configuração e uso dentro da instituição. Garantia não inferior a 1 ano</t>
-  </si>
-  <si>
-    <t>Ubiquiti Unifi Access Point U6 Pro (U6-PRO) Access Point Wi-Fi 6 de alto desempenho. Obs: A necessidade de aquisição dos equipamentos supracitados da forma como foi descrito. Se dá, em virtude da necessidade de padronização de interfaces na UERN, tendo em vista a aquisição anterior de equipamentos de mesma característica/configuração e uso dentro da instituição.Garantia não inferior a 1 ano</t>
-  </si>
-  <si>
-    <t>Mini Rack para redes, 19 Polegadas. Mínimo de 9Ux570mm de Parede Para Servidor Data Center Padrão 19'', preto; Deve possuir tampa frontal com acrílico e duas chaves com tranca.</t>
-  </si>
-  <si>
-    <t>Webcam C922 Pro HD Stream LOGITECH. Similar ou superior. Garantia não inferior a 1 ano.</t>
-  </si>
-  <si>
-    <t>Câmera tipo Webcam. Resolução Ultra HD 4k ou superior. Microfones omidirecionais integrados. Memória micro SD. Videochamadas em ultra hd 4k (até 4096 x 2160 pixels a 30 fps). Tecnologia infravermelho e usb. Marca/modelo de referência: Brio - Logitech. Similar ou superior.</t>
-  </si>
-  <si>
-    <t>Câmera digital compacta, Pixels efetivos: Mínimo de 16,0 milhões, Sensor de imagem: CMOS do tipo 1/2,3 pol., Objetiva: Objetiva com zoom ótico de, no mínimo, 125x, Zoom: Ótico de, no mínimo, 125x e Dinâmico de, pelo menos, 250x, Gama de focagem: [Grande angular]: Aproximadamente 30 cm até ao infinito, [Teleobjetiva]: Aproximadamente 7,0 m até ao infinito, Modo macro close-up: Aproximadamente 1 cm até ao infinito (posição de grande angular), Aproximadamente 7,0 m até ao infinito (posição de teleobjetiva), (Todas as distâncias medidas a partir do centro da superfície frontal da lente), Visor: Visor eletrônico OLED, Monitor: Monitor LCD TFT multiângulo, entre 7,5 cm e 8,5 cm, Armazenamento - formato de ficheiros: Fotografias, ao menos, nos seguintes formatos: JPEG, RAW (NRW); Filmes: MP4 (Vídeo: AVC H.264/MPEG-4, Áudio: estéreo AAC), Tipo de Obturador: Obturador mecânico e CMOS eletrônico, Velocidade do obturador: Mínimo de 1/40002 a 1 seg, Conectores: HDMI, Microfone, USB Wi-Fi: Sim, ➢ Bluetooth: Sim, Microfone: Sim, Fontes de alimentação: bateria de lítio recarregável.</t>
-  </si>
-  <si>
-    <t>Câmera De Trilha Caça Trap Noturna 16mp FullHD Com Bateria(para levantamento de fauna e flora) Uso de cartão dememória. Lente: F = 3,1; FOV = 120 graus.Tamanho: 135milímetros * 0mm * 76 mm. Display: 2,4 polegadas TFT.Modo: Camera / Video / Camera &amp; Video /Timelapse. PIRDetecção Faixa: 120 graus. Night Vision Distância: 65 pés / 20 metros. IR LED: 36 LEDs Infared. PIR Distância: 65 pés / 20metros. Gatilho Velocidade: 0,3segundo.PIRIntervalo:1/5/10/30 seg / min (padrão 1 seg). Resolução da imagem:6MP / 12MP / 8MP. Várias fotos em uma detecção: 1/3/6/9. Vídeo Resolução: 1080P / 720P / WVGA / VGA. Formato dearquivo: JPEG / AVI. Date Time Imprint: Sim Moon Phasemprint: Sim. ISO Exposição: Auto / 100/200/400. Interface:saída para TV; USB2.0; Micro SD Card; 6V / 1.5A encaixeexterno. Detecção de movimento: Baixo / Médio / Alto. Fontee alimentação : bateria de lítio 5000mA, 12V externa / 1.5ADC. Com timer. Waterproof: IP65.</t>
-  </si>
-  <si>
-    <t>Estufa Analógica de esterilização e secagem interior em inox 13 litros: com medidas internas de 23x25x23 (AxLxP)cm. Gabinete construído em chapa de aço carbono SAE 1020 com tratamento anticorrosivo e acabamento (pintura) em epóxi texturizado eletrostático. Câmara interna em aço inox AISI 430. Saída superior – respiro para gases, umidade ou acomodação do termômetro. Trilhos internos para deslocamento das bandejas. Sistema de fecho tipo rolete. Vedação com perfil de silicone de alta temperatura. Porta fusível, com fusível de proteção. Painel de controle dotado com Termômetro; Chave geral liga/desliga; Termostato; Porta fusível. temperatura de trabalho: 50°c até 250°c. controle de temperatura: analógico – termostato eletromecânico. indicação de processo: lâmpada piloto. sistema de aquecimento: resistência blindada. isolamento térmico: isolação térmica em lã de vidro, inclusive nas portas. circulação de ar: circulação de ar por convecção natural, livre de ruídos. alimentação: bivolt ou 220v.</t>
-  </si>
-  <si>
-    <t>Cápsulas de Alumínio para amostras de solo, de 70x45mm c/ tampa 159ml, que acondicionam anés de 100 ou de 50cm³.</t>
-  </si>
-  <si>
-    <t>Multímetro Digital. Equipamento com suporte para medições precisas de corrente DC, tensão AC/DC, resistência, teste de diodo, continuidade e hFE. Com display de 3 1/2 dígitos e 2000 contagens. Funcionalidades: luz de fundo e lanterna, alarme de continuidade, Data Hold, função Relativo, e NCV (detecção de corrente sem contato). com tolerâncias de até ±0,5% para tensão DC e ±1% para tensão AC (True RMS). Com proteção contra sobrecarga de até 600V DC/AC RMS e desligamento automático após 15 minutos de inatividade. Bateria com duração de até 200 horas com pilhas alcalinas. Deve possuir conformidade com a norma IEC61010 CAT II 600V e suas especificações robustas de resistência e corrente. Garantia total de pelo menos 1 ano. Modelo de referência: Minipa ET- 1110B, podendo ser similar ou superior.</t>
-  </si>
-  <si>
-    <t>Ferramenta para teste e rastreamento de cabos de rede. Equipado com bateria de lítio recarregável de 3,7V e e pelo menos 1400mAh. Com capacidade de medir cabos de até 500 metros de comprimento. Dispositivo com três modos de varredura (digital, analógico e POE), além de recursos como medição precisa do comprimento do (2,5m a 500m), teste de falhas no cabo, identificação de pontos de entrada, função blink para localizar portas de rede e a detecção de tensão AC (70V-1000V). O dispositivo deve ser capaz de realizar testes em cabos CAT5, CAT6, STP e UTP, com uma precisão de ± 1,6m para medição de comprimento. Deve possuir tela LCD retroiluminada para facilitar a leitura. Deve acompanhar os acessórios completos, incluindo adaptadores de cabo e cabo USB tipo C para recarga. Unidade composta 1 componente emissor e 1 componente receptor. Modelo de referência: Noyafa Nf- 8209, podendo ser similar ou superior</t>
-  </si>
-  <si>
-    <t>Fluke Networks DSX-8000 CableAnalyzer + CertiFiber Pro (OLTS - Nível 1) + OptiFiber Pro (OTDR - Nível 2):, similar ou superior com garantia não inferior a 1(um) ano.</t>
-  </si>
-  <si>
-    <t>Alicate Amperímetro Digital True RMS com capacidade de medição multifuncional. Deve possuir display LCD de 6000 contagens, com iluminação da garra e taxa de amostragem de aproximadamente 3 vezes por segundo. Deve ser capaz de realizar medições precisas de tensão AC/DC, corrente AC, frequência, duty cycle, resistência, capacitância, temperatura, diodo, continuidade, corrente inrush, e disponibilizar funções NCV e LIVE. Deve contar proteção para sobrecarga até 1000V DC e 750V AC, além de conformidade com as normas de segurança IEC/EN 61010. Deve contar com abertura de garra de 40mm. Deve incluir recursos de indicação de bateria fraca, desligamento automático e operação em temperaturas de 0°C a 40°C. Deve acompanhar acessórios como manual de instruções, pontas de prova, termopar tipo K e bolsa para transporte. Modelo de referência: Minipa ET-3710B, podendo ser similar ou superior.</t>
-  </si>
-  <si>
-    <t>Projetor Multimídia: Brilho mínimo de 3.800 lúmens - ISO; taxa de contraste 16.000:1; Resolução nativa WXGA (1280 px x 800 px); possibilidade de projeção: frontal/traseira/teto; Conectividade: 2xDB15(VGA), 1x RJ45, 1x USB; 1x RCA Vídeo, 2x RCA áudio e 2x HDMI; Autofalante: com potência não inferior a 5W; Reprodução de cor: 1 bilhão de cores; Vida útil da fonte de iluminação não deve ser inferior a 8.000 horas(modo normal); Deve acompanhar 1 bolsa de transporte; controle remoto; Garantia mínima de 2 anos, a contar da data de entrega do equipamento.</t>
-  </si>
-  <si>
-    <t>Computador Tipo 1. Computador desktop de uso corporativo, novo e sem uso anterior; Processador: 64 Bits Intel i3 ou superior(14º Geração ou mais recente) ou AMD Ryzen 3 ou superior(geração 8000 ou mais recente) Cache L3 ou Smartcache de, no mínimo 12MB. Deverá possuir suporte para barramento DDR5 ou superior. O processador deverá ser acompanhado por cooler compatível com o mesmo, com potência suficiente para resfriamento padrão. Deverá ser aplicada pasta térmica se o fabricante do processador assim o recomendar. Na proposta escrita, deverão ser informados a marca e o modelo do processador ofertado. Clock Máximo de 4.40 GHz ou superior, podendo ser aferido nos núcleos de performance e em carga total. Placa Mãe: Fabricação própria e compatível com o modelo ofertado. Não deve ser produzida em regime de OEM. Chip de segurança TPM versão 2.0 (ou superior) integrado para criptografia. Possuir dois slots padrão PCIE M.2 GEN 4 ou superior para discos NVME. Deve possuir slots e conexões para os dispositivos elencados neste termo de referência. Na proposta escrita, deverão ser informados a marca e o modelo da placa mãe ofertada a ser fornecida. Chipset: Deverá possuir suporte a expansão de memória de, no mínimo, 32 GB em dual channel ou superior; Deverá possuir suporte de memória do tipo: DDR5 4800 MHz ou barramento superior. Suporte a controladora de disco padrão NVME. Possuir suporte a configurações de memória de canal duplo (dual channel memory) para um melhor desempenho. Memória 8 GB RAM DDR5 ou Superior. Deve possuir 01(um) módulo de 8 GB RAM. Memória ram (Randon Access Memory) DDR5 4800 MHz ou superior. A memória não pode ser soldada diretamente na placa mãe. BIOS: Possibilidade de proteção da configuração por meio de senha (password) contida na própria memória de configuração da motherboard. A BIOS uefi deverá estar gravada em memória do tipo “flash” ou equivalente que permita a sua fácil atualização diretamente através do microcomputador, sem a necessidade de remoção ou apagamento (como no caso das Eprom). A configuração da máquina deverá ser alterável e mantida através de bateria (recarregável ou não) ou método equivalente (memória flash, eprom ou outra solução similar) montada sobre a própria motherboard. A bios UEFI deverá permitir atualização via software. Caso haja interrupção da energia durante a atualização, a bios deverá ser recuperada automaticamente para versão anterior ou ser possível recuperá-la online através de solução ofertada pelo fabricante, não podendo ser o equipamento inutilizado. As atualizações da bios uefi deverão ser disponibilizadas, através do site www ou ftp do fabricante da placa mãe. Assas atualizações, se ocorrerem, deverão ser gratuitas. suporte para o modo de economia de energia. Suporte ao sistema de gerenciamento dmi (desktop management interface) em sua v.2.0 ou mais recente. Deverá ter suporte ao idioma inglês e/ou português. Deverá ser fornecida solução que permita salvar as configurações de bios do equipamento em um arquivo executável/script para distribuição da configuração para equipamentos da mesma marca/modelo, independente de senha; Slots e portas de comunicação: portas usb: Mínimo de 06 (seis) portas usb; uma porta usb 3.2 tipo- c frontal. Não será permitido uso de “hub” usb externo. Conectores de áudio (line-in, line-out, mic in), sendo permitido conector combo (line-out, mic-in). Portas de vídeo: Mínimo de 02 (duas) portas de vídeo: 01 (uma) porta padrão hdmi; 01 (uma) porta padrão vga; Não será aceito adaptador para o padrão VGA; Deverá possuir 2 (dois) slots PCIE Gen 4 ou superior para conexão unidade de estado sólido padrão m.2 nvme. Controladora de disco: Controladora de unidade de discos padrão PCIE M.2 NVME; Interface de vídeo: Memória gráfica de, no mínimo, 256 mb com alocação dinâmica de memória ram. Resolução gráfica analógica de: 1920 x 1080 pixels ou superior. Suporte a directx versão 12 ou superior. Unidade de armazenamento: Unidade de estado sólido M.2 NVME de, no mínimo, 256 GB, velocidade de escrita e leitura superior a 2000MB/s; Na proposta escrita, deverão ser informados a marca e o modelo do disco rígido. Interface de rede: 01 (uma) interface de rede gigabit, com total compatibilidade com rede ethernet - padrões ieee 802.2 e 802.3. taxa de transmissão de 10mbps- half duplex, 10mbps-full duplex/100mbps- half duplex, 100MBPS full duplex e 1000MBPS full duplex (gigabit). Barramento de sistema para comunicação, tipo pci-express, podendo ser interno ao chipset ou placa mãe, dispensado o uso de slot PCIE. Suporte a função wake on lan. Interface de som: “on-board”, padrão plug-and-play. O equipamento deve possuir alto-falante interno capaz de reproduzir sons do sistema operacional; Mouse: mouse óptico, compatível com o microsoft mouse, com pelo menos 1600 dpi de sensibilidade, com 2 (dois) botões e rolete emborrachado de scroll, em conector usb, compatível com a interface ofertada na motherboard do equipamento. tapete (mousepad) para mouse. cor predominante preta. Não será aceito mouse tipo mini. Teclado: Compatível com o teclado ibm-pc/at, com layout abnt2. com, no mínimo, 101 teclas, padrão qwerty; teclas alfanuméricas, de função (f1 a f12), numéricas e de movimentação de cursor independentes. com conector usb compatível com a interface ofertada na motherboard do equipamento. com possibilidade de ajuste da inclinação. Com indicadores (led’s) de num lock, caps lock e scroll lock. Cor predominante preta. Gabinete: Padrão micro-pc possuir local para uso de cadeado ou lacre para evitar acessos indevidos ao interior do gabinete. Possuir botão liga/desliga frontal com função dupla: liga/desliga e standby/sleep. Possuir indicadores liga/desliga e disco rígido na parte frontal. Cor preta. Fonte de alimentação: Tensão de entrada de 100 – 240 volts automática, com proteção contra variação de tensão na rede. Softwares: Licença de uso de software individual por microcomputador Windows 11 pro original 64 bits instalado, em português, A chave da licença (bios oem key) do sistema operacional microsoft windows deverá estar gravada na bios do equipamento. deverá ser fornecida solução para reinstalação do sistema operacional. serão aceitas as seguintes soluções: disco usb que instale o sistema operacional e drivers do equipamento com proteção de gravação. deverá ser entregue uma unidade para cada 5 equipamentos, sendo no mínimo duas unidades por local de entrega. solução de reinstalação do sistema operacional e drivers acessível através da bios do equipamento com conexão à internet, sem necessidade de disco usb externo. Garantia mínima de 03 anos com as seguintes características: O período de garantia será contado a partir da data da emissão do termo de aceite final dos equipamentos, não inferior a 03 (três) anos, sendo os atendimentos prestados no local de instalação e utilização dos computadores no município de campinas. caso a empresa proponente ofereça prazo de garantia superior ao exigido no item acima, deverá indicá-lo na proposta. A garantia, suporte técnico e a manutenção de hardware dos equipamentos serão de responsabilidade da fabricante, abrangendo a solução de problemas ocasionados pelo mau funcionamento e defeitos apresentados, sendo responsáveis pelo reparo e substituição de peças defeituosas por outra nova, de performance equivalente ou superior. Durante o período de garantia, a manutenção de hardware dos equipamentos e dispositivos que integram o equipamento, inclusive teclado e mouse, será de responsabilidade da fabricante dispondo do prazo máximo de 05 (cinco) dias úteis para a solução do problema, contados da abertura do chamado. Em caso de identificação de problemas generalizados de hardware, tais como defeitos de fabricação, incompatibilidade de drivers, entre outros, a fabricante deverá providenciar a correção do problema em até 05 (cinco) dias úteis contados do registro da ocorrência ou substituição em até 07 (sete) dias úteis. Caso algum equipamento apresente reincidência de problemas, a contratante poderá exigir sua substituição, que deverá ocorrer em até 05 (cinco) dias úteis a partir da data do registro da segunda ocorrência. A contratada deverá indicar o canal de atendimento da assistência técnica a ser prestado pela fabricante. Os chamados para solução de problemas com os equipamentos deverão receber um número para acompanhamento do usuário e deverão ter a resolução em até 3 dias úteis, com atendimento no local de trabalho do servidor público. durante o período de garantia a contratante poderá abrir e substituir os componentes internos (ex.: placas pci, disco, memória, etc) sem perda da garantia do equipamento, sem autorização do fabricante. neste caso, a garantia será restringida apenas aos itens fornecidos pelo fabricante. a garantia deverá possuir atendimento remoto telefônico com técnicos especializados das 8:00 às 20:00 para abertura de chamado e diagnóstico remoto. caso o problema não seja resolvido remotamente, o atendimento deverá ocorrer no local de instalação dos equipamentos em dias úteis das 8:00 às 18:00. deverá der fornecida solução que permita acompanhar e distribuir a atualização de drivers, firmwares e bios de forma centralizada para gerenciamento da política de segurança e atualização; deverá ser fornecido portal com acesso seguro que permita aos técnicos da FUERN, abertura de chamados em garantia de forma on-line e acompanhamento, sem a necessidade de ligação telefônica\call center; Deverá ser fornecida solução que permita medir o histórico de uso dos componentes do equipamento como memória, disco, processador e identificar softwares utilizados e que impactam na performance do equipamento.</t>
-  </si>
-  <si>
-    <t>Computador Tipo 2. Computador desktop de uso corporativo, novo e sem uso anterior; Processador: 64 Bits Intel i5 14500 vPRO similar ou superior, considerando realização de benchmark de desempenho, devendo ser o respectivo desempenho igual ou superior ao referenciado; Deverá possuir suporte para barramento DDR5 ou superior. O processador deverá ser acompanhado por cooler compatível com o mesmo, com potência suficiente para resfriamento padrão. Deverá ser aplicada pasta térmica se o fabricante do processador assim o recomendar. Na proposta escrita, deverão ser informados a marca e o modelo do processador ofertado. Placa Mãe: Fabricação própria e compatível com o modelo ofertado. Não deve ser produzida em regime de oem. Chip de segurança TPM versão 2.0 (ou superior) integrado para criptografia. Possuir dois slots padrão PCIE M.2 GEN 4 ou superior para discos NVME. Deve possuir slots e conexões para os dispositivos elencados neste termo de referência. Na proposta escrita, deverão ser informados a marca e o modelo da placa mãe ofertada a ser fornecida. Chipset: Deverá possuir suporte a expansão de memória de, no mínimo, 32 gb em dual channel ou superior; Deverá possuir suporte de memória do tipo: DDR5 4800 MHz ou barramento superior. Suporte a controladora de disco padrão NVME. Possuir suporte a configurações de memória de canal duplo (dual channel memory) para um melhor desempenho. Memória 16 GB RAM DDR5 ou Superior. Deve possuir 02(dois) módulos de 8 GB RAM. Memória ram (randon access memory) DDR5 4800 MHz ou superior. A memória não pode ser soldada diretamente na placa mãe. BIOS: Possibilidade de proteção da configuração por meio de senha (password) contida na própria memória de configuração da motherboard. A BIOS uefi deverá estar gravada em memória do tipo “flash” ou equivalente que permita a sua fácil atualização diretamente através do microcomputador, sem a necessidade de remoção ou apagamento (como no caso das Eprom). A configuração da máquina deverá ser alterável e mantida através de bateria (recarregável ou não) ou método equivalente (memória flash, eprom ou outra solução similar) montada sobre a própria motherboard. A bios uefi deverá permitir atualização via software. Caso haja interrupção da energia durante a atualização, a bios deverá ser recuperada automaticamente para versão anterior ou ser possível recuperá-la online através de solução ofertada pelo fabricante, não podendo ser o equipamento inutilizado. As atualizações da bios uefi deverão ser disponibilizadas, através do site www ou ftp do fabricante da placa mãe. Assas atualizações, se ocorrerem, deverão ser gratuitas. suporte para o modo de economia de energia. Suporte ao sistema de gerenciamento dmi (desktop management interface) em sua v.2.0 ou mais recente. Deverá ter suporte ao idioma inglês e/ou português. Deverá ser fornecida solução que permita salvar as configurações de bios do equipamento em um arquivo executável/script para distribuição da configuração para equipamentos da mesma marca/modelo, independente de senha; Slots e portas de comunicação: portas usb: Mínimo de 06 (seis) portas usb; uma porta usb 3.2 tipo- c frontal. Não será permitido uso de “hub” usb externo. Conectores de áudio (line-in, line-out, mic in), sendo permitido conector combo (line-out, mic-in). Portas de vídeo: Mínimo de 02 (duas) portas de vídeo: 01 (uma) porta padrão HDMI; 01 (uma) porta padrão VGA; Não será aceito adaptador para o padrão VGA; Deverá possuir 2 (dois) slots PCIE Gen 4 ou superior para conexão unidade de estado sólido padrão m.2 nvme. Controladora de disco: Controladora de unidade de discos padrão PCIE M.2 NVME; Interface de vídeo: Memória gráfica de, no mínimo, 256 mb com alocação dinâmica de memória ram. Resolução gráfica analógica de: 1920 x 1080 pixels ou superior. Suporte a directx versão 12 ou superior. Unidade de armazenamento: Unidade de estado sólido M.2 NVME de, no mínimo, 512 GB, velocidade de escrita e leitura superior a 2000MB/s; Na proposta escrita, deverão ser informados a marca e o modelo do disco rígido. Interface de rede: 01 (uma) interface de rede gigabit, com total compatibilidade com rede ethernet - padrões ieee 802.2 e 802.3. taxa de transmissão de 10mbps- half duplex, 10mbps-full duplex/100mbps- half duplex, 100MBPS full duplex e 1000MBPS full duplex (gigabit). Barramento de sistema para comunicação, tipo pci-express, podendo ser interno ao chipset ou placa mãe, dispensado o uso de slot PCIE. Suporte a função wake on lan. Interface de som: “on-board”, padrão plug-and-play. O equipamento deve possuir alto-falante interno capaz de reproduzir sons do sistema operacional; Mouse: mouse óptico, compatível com o microsoft mouse, com pelo menos 1600 dpi de sensibilidade, com 2 (dois) botões e rolete emborrachado de scroll, em conector usb, compatível com a interface ofertada na motherboard do equipamento. tapete (mousepad) para mouse. cor predominante preta. Não será aceito mouse tipo mini. Teclado: Compatível com o teclado ibm-pc/at, com layout abnt2. com, no mínimo, 101 teclas, padrão qwerty; teclas alfanuméricas, de função (f1 a f12), numéricas e de movimentação de cursor independentes. com conector usb compatível com a interface ofertada na motherboard do equipamento. com possibilidade de ajuste da inclinação. Com indicadores (led’s) de num lock, caps lock e scroll lock. Cor predominante preta. Gabinete: Padrão micro-pc possuir local para uso de cadeado ou lacre para evitar acessos indevidos ao interior do gabinete. Possuir botão liga/desliga frontal com função dupla: liga/desliga e standby/sleep. Possuir indicadores liga/desliga e disco rígido na parte frontal. Cor preta. Fonte de alimentação: Tensão de entrada de 100 – 240 volts automática, com proteção contra variação de tensão na rede. Softwares: Licença de uso de software individual por microcomputador windows 11 pro original 64 bits instalado, em português, elegível para downgrade para windows 10 pro. a chave da licença (bios oem key) do sistema operacional microsoft windows deverá estar gravada na bios do equipamento. deverá ser fornecida solução para reinstalação do sistema operacional. serão aceitas as seguintes soluções: disco usb que instale o sistema operacional e drivers do equipamento com proteção de gravação. deverá ser entregue uma unidade para cada 5 equipamentos, sendo no mínimo duas unidades por local de entrega. solução de reinstalação do sistema operacional e drivers acessível através da bios do equipamento com conexão à internet, sem necessidade de disco usb externo. Garantia mínima de 03 anos com as seguintes características: O período de garantia será contado a partir da data da emissão do termo de aceite final dos equipamentos, não inferior a 03(três) anos, sendo os atendimentos prestados no local de instalação e utilização dos computadores no município de campinas. caso a empresa proponente ofereça prazo de garantia superior ao exigido no item acima, deverá indicá-lo na proposta. A garantia, suporte técnico e a manutenção de hardware dos equipamentos serão de responsabilidade da fabricante, abrangendo a solução de problemas ocasionados pelo mau funcionamento e defeitos apresentados, sendo responsáveis pelo reparo e substituição de peças defeituosas por outra nova, de performance equivalente ou superior. Durante o período de garantia, a manutenção de hardware dos equipamentos e dispositivos que integram o equipamento, inclusive teclado e mouse, será de responsabilidade da fabricante dispondo do prazo máximo de 05 (cinco) dias úteis para a solução do problema, contados da abertura do chamado. Em caso de identificação de problemas generalizados de hardware, tais como defeitos de fabricação, incompatibilidade de drivers, entre outros, a fabricante deverá providenciar a correção do problema em até 05 (cinco) dias úteis contados do registro da ocorrência ou substituição em até 07 (sete) dias úteis. Caso algum equipamento apresente reincidência de problemas, a contratante poderá exigir sua substituição, que deverá ocorrer em até 05 (cinco) dias úteis a partir da data do registro da segunda ocorrência. A contratada deverá indicar o canal de atendimento da assistência técnica a ser prestado pela fabricante. Os chamados para solução de problemas com os equipamentos deverão receber um número para acompanhamento do usuário e deverão ter a resolução em até 3 dias úteis, com atendimento no local de trabalho do servidor público. durante o período de garantia a contratante poderá abrir e substituir os componentes internos (ex.: placas pci, disco, memória, etc) sem perda da garantia do equipamento, sem autorização do fabricante. neste caso, a garantia será restringida apenas aos itens fornecidos pelo fabricante. a garantia deverá possuir atendimento remoto telefônico com técnicos especializados das 8:00 às 20:00 para abertura de chamado e diagnóstico remoto. caso o problema não seja resolvido remotamente, o atendimento deverá ocorrer no local de instalação dos equipamentos em dias úteis das 8:00 às 18:00. deverá der fornecida solução que permita acompanhar e distribuir a atualização de drivers, firmwares e bios de forma centralizada para gerenciamento da política de segurança e atualização; deverá ser fornecido portal com acesso seguro que permita aos técnicos da FUERN, abertura de chamados em garantia de forma on-line e acompanhamento, sem a necessidade de ligação telefônica\call center; Deverá ser fornecida solução que permita medir o histórico de uso dos componentes do equipamento como memória, disco, processador e identificar softwares utilizados e que impactam na performance do equipamento.</t>
-  </si>
-  <si>
-    <t>Computador Tipo 3. Computador desktop de uso corporativo, novo e sem uso anterior; Processador: 64 Bits Intel i7 14700 ou superior(14º Geração ou mais recente ) ou similar, considerando realização de benchmark de desempenho, devendo ser o respectivo desempenho igual ou superior ao referenciado; Deverá possuir suporte para barramento DDR5 ou superior. O processador deverá ser acompanhado por cooler compatível com o mesmo, com potência suficiente para resfriamento padrão. Deverá ser aplicada pasta térmica se o fabricante do processador assim o recomendar.Na proposta escrita, deverão ser informados a marca e o modelo do processador ofertado. Clock Máximo de 4.40 GHz ou superior, podendo ser aferido nos núcleos de performance e em carga total. Placa Mãe: Fabricação própria e compatível com o modelo ofertado. Não deve ser produzida em regime de oem. Chip de segurança TPM versão 2.0 (ou superior) integrado para criptografia. Possuir dois slots padrão PCIE M.2 GEN 4 ou superior para discos NVME. Deve possuir slots e conexões para os dispositivos elencados neste termo de referência. Na proposta escrita, deverão ser informados a marca e o modelo da placa mãe ofertada a ser fornecida. Chipset: Deverá possuir suporte a expansão de memória de, no mínimo, 32 gb em dual channel ou superior; Deverá possuir suporte de memória do tipo: DDR5 4800 MHz ou barramento superior. Suporte a controladora de disco padrão NVME. Possuir suporte a configurações de memória de canal duplo (dual channel memory) para um melhor desempenho. Memória 32 GB RAM DDR5 ou Superior. Deve possuir 02(dois) módulos de 16 GB RAM. Memória ram (randon access memory) DDR5 ou superior. A memória não pode ser soldada diretamente na placa mãe. BIOS: Possibilidade de proteção da configuração por meio de senha (password) contida na própria memória de configuração da motherboard. A BIOS uefi deverá estar gravada em memória do tipo “flash” ou equivalente que permita a sua fácil atualização diretamente através do microcomputador, sem a necessidade de remoção ou apagamento (como no caso das Eprom). A configuração da máquina deverá ser alterável e mantida através de bateria (recarregável ou não) ou método equivalente (memória flash, eprom ou outra solução similar) montada sobre a própria motherboard. A bios uefi deverá permitir atualização via software. Caso haja interrupção da energia durante a atualização, a bios deverá ser recuperada automaticamente para versão anterior ou ser possível recuperá-la online através de solução ofertada pelo fabricante, não podendo ser o equipamento inutilizado. As atualizações da bios uefi deverão ser disponibilizadas, através do site www ou ftp do fabricante da placa mãe. Assas atualizações, se ocorrerem, deverão ser gratuitas. suporte para o modo de economia de energia. Suporte ao sistema de gerenciamento dmi (desktop management interface) em sua v.2.0 ou mais recente. Deverá ter suporte ao idioma inglês e/ou português. Deverá ser fornecida solução que permita salvar as configurações de bios do equipamento em um arquivo executável/script para distribuição da configuração para equipamentos da mesma marca/modelo, independente de senha; Slots e portas de comunicação: portas usb: Mínimo de 06 (seis) portas usb; uma porta usb 3.2 tipo- c frontal. Não será permitido uso de “hub” usb externo. Conectores de áudio (line-in, line-out, mic in), sendo permitido conector combo (line-out, mic-in). Placa de vídeo: Nvidia RTX 2000 Ada, 16 GB GDDR6, 4 adaptadores mDP para DP, similar ou superior. Parte frontal deve possuir um slot para cartão SD; Deverá possuir 2 (dois) slots PCIE Gen 4 ou superior para conexão unidade de estado sólido padrão m.2 nvme. Controladora de disco: Controladora de unidade de discos padrão PCIE M.2 NVME; Interface de vídeo: Memória gráfica de, no mínimo, 256 mb com alocação dinâmica de memória ram. Resolução gráfica analógica de: 1920 x 1080 pixels ou superior. Suporte a directx versão 12 ou superior. Unidade de armazenamento: SSD de 1TB PCle NVMe M.2 (Classe 40); Na proposta escrita, deverão ser informados a marca e o modelo do disco rígido. Interface de rede: 01 (uma) interface de rede gigabit, com total compatibilidade com rede ethernet - padrões ieee 802.2 e 802.3. taxa de transmissão de 10mbps-half duplex, 10mbps-full duplex/100mbps- half duplex, 100MBPS full duplex e 1000MBPS full duplex (gigabit). Barramento de sistema para comunicação, tipo pci- express, podendo ser interno ao chipset ou placa mãe, dispensado o uso de slot PCIE. Suporte a função wake on lan. Interface de som: “on-board”, padrão plug-and-play. O equipamento deve possuir alto-falante interno capaz de reproduzir sons do sistema operacional; Mouse: mouse óptico, compatível com o microsoft mouse, com pelo menos 1600 dpi de sensibilidade, com 2 (dois) botões e rolete emborrachado de scroll, em conector usb, compatível com a interface ofertada na motherboard do equipamento. tapete (mousepad) para mouse. cor predominante preta. Não será aceito mouse tipo mini. Teclado: Compatível com o teclado ibm-pc/at, com layout abnt2. com, no mínimo, 101 teclas, padrão qwerty; teclas alfanuméricas, de função (f1 a f12), numéricas e de movimentação de cursor independentes. com conector usb compatível com a interface ofertada na motherboard do equipamento. com possibilidade de ajuste da inclinação. Com indicadores (led’s) de num lock, caps lock e scroll lock. Cor predominante preta. Gabinete: Padrão micro-pc possuir local para uso de cadeado ou lacre para evitar acessos indevidos ao interior do gabinete. Possuir botão liga/desliga frontal com função dupla: liga/desliga e standby/sleep. Possuir indicadores liga/desliga e disco rígido na parte frontal. Cor preta. Fonte de alimentação: Tensão de entrada de 100 – 240 volts automática, com proteção contra variação de tensão na rede. Softwares: Licença de uso de software individual por microcomputador windows 11 pro original 64 bits instalado, em português, elegível para downgrade para windows 10 pro. a chave da licença (bios oem key) do sistema operacional microsoft windows deverá estar gravada na bios do equipamento. deverá ser fornecida solução para reinstalação do sistema operacional. serão aceitas as seguintes soluções: disco usb que instale o sistema operacional e drivers do equipamento com proteção de gravação. deverá ser entregue uma unidade para cada 5 equipamentos, sendo no mínimo duas unidades por local de entrega. solução de reinstalação do sistema operacional e drivers acessível através da bios do equipamento com conexão à internet, sem necessidade de disco usb externo. Garantia mínima de 03 anos com as seguintes características: O período de garantia será contado a partir da data da emissão do termo de aceite final dos equipamentos, não inferior a 03 (três) anos, sendo os atendimentos prestados no local de instalação e utilização dos computadores no município de campinas. caso a empresa proponente ofereça prazo de garantia superior ao exigido no item acima, deverá indicá-lo na proposta. A garantia, suporte técnico e a manutenção de hardware dos equipamentos serão de responsabilidade da fabricante, abrangendo a solução de problemas ocasionados pelo mau funcionamento e defeitos apresentados, sendo responsáveis pelo reparo e substituição de peças defeituosas por outra nova, de performance equivalente ou superior. Durante o período de garantia, a manutenção de hardware dos equipamentos e dispositivos que integram o equipamento, inclusive teclado e mouse, será de responsabilidade da fabricante dispondo do prazo máximo de 05 (cinco) dias úteis para a solução do problema, contados da abertura do chamado. Em caso de identificação de problemas generalizados de hardware, tais como defeitos de fabricação, incompatibilidade de drivers, entre outros, a fabricante deverá providenciar a correção do problema em até 05 (cinco) dias úteis contados do registro da ocorrência ou substituição em até 07 (sete) dias úteis. Caso algum equipamento apresente reincidência de problemas, a contratante poderá exigir sua substituição, que deverá ocorrer em até 05 (cinco) dias úteis a partir da data do registro da segunda ocorrência. A contratada deverá indicar o canal de atendimento da assistência técnica a ser prestado pela fabricante. Os chamados para solução de problemas com os equipamentos deverão receber um número para acompanhamento do usuário e deverão ter a resolução em até 3 dias úteis, com atendimento no local de trabalho do servidor público. durante o período de garantia a contratante poderá abrir e substituir os componentes internos (ex.: placas pci, disco, memória, etc) sem perda da garantia do equipamento, sem autorização do fabricante. neste caso, a garantia será restringida apenas aos itens fornecidos pelo fabricante. a garantia deverá possuir atendimento remoto telefônico com técnicos especializados das 8:00 às 20:00 para abertura de chamado e diagnóstico remoto. caso o problema não seja resolvido remotamente, o atendimento deverá ocorrer no local de instalação dos equipamentos em dias úteis das 8:00 às 18:00. deverá der fornecida solução que permita acompanhar e distribuir a atualização de drivers, firmwares e bios de forma centralizada para gerenciamento da política de segurança e atualização; deverá ser fornecido portal com acesso seguro que permita aos técnicos da FUERN, abertura de chamados em garantia de forma on-line e acompanhamento, sem a necessidade de ligação telefônica\call center; Deverá ser fornecida solução que permita medir o histórico de uso dos componentes do equipamento como memória, disco, processador e identificar softwares utilizados e que impactam na performance do equipamento.</t>
-  </si>
-  <si>
-    <t>Computador Completo. Sistema operacional: Windows 11 Profissional 64 Bits (ativado); PROCESSADOR: Intel® Core™ i7 13º Geração, ou superior. MEMÓRIA: Padrão DDR4; Mínimo de 16GB; 2666MHz ou superior. Deve possuir dissipador de calor, ser compatível com o intel XMP 2.0 para overclocking e com RoHS (Certificação de Produção): Placa de vídeo dedicada de no mínimo 4GB VRAM GDDR5(GTX1650, ou superior); Mínimo de 1 SSD 1TB NVMe; Gabinete: Deve possuir 1 cooler lateral ou traseiro; Fonte de alimentação: Com suporte a gabinete padrão ATX P4 24 pinos - Potência mínima de 400 Watts de saída; - Faixa de tensão de entrada de 100VAC/240VAC à 50/60Hz, com seleção automática de tensão, capaz de sustentar a configuração máxima do computador, - PFC Ativo e com rendimento superior a 80%. - 4 conectores de periféricos tipo HD no mínimo; - 1 conector de 24 pinos padrão ATX para a placa-mãe (20+4 Pinos); - 1 conector de 4 pinos complementares para placa mãe ; cooler lateral; TPM 2.0; Deve suportar todos os itens do gabinete; PLACA MÃE: Portas I/O: 1 x VGA; 1 x HDMI; 1 x DVI-D; 4 x USB 3.0; 1 x LAN(RJ-45) 10/100/1000 3 x conectores de áudio(line/out/mic); Slots de Memória: 4 x DIMM, Deve suportar 64GB, DDR4 2666 MHz ; Slots de Expansão: 1 x PCIe 3.0 x16; 2 x PCIe 2.0 x1; 1 x M.2Socket 3 com M key(suporte nativo NVMe). O slot M.2 deve suportar os tipos 2242/2260/2280/22110 ; Armazenamento: 4 x Porta(s) SATA 6Gb/s, com suporte RAID 0, 1 e 10; Drivers: Deve ser compatível com Windows® 10/11 64 Bits; BIOS/UEFI: Deve ser do tipo “multilinguagem”, Deve possuir controle de velocidade do Cooler, Deve possuir SPD(Serial Presence Detect); Deve possuir TPM(Trusted Platform Module) na versão 2.0; Teclado: Padrão ABNT-2 e conector tipo USB; Teclado: Padrões da ABNT (Associação Brasileira de Normas Técnicas), com regulagem de altura e inclinação do teclado. mouse Resolução mínima de 800 (oitocentos) dpi ou superior; Conector tipo USB, Deve ser fornecido mouse-pad.</t>
-  </si>
-  <si>
-    <t>Estação de trabalho sem Monitor. Configurações Mínimas - Processador: mínimo de 4 núcleos físicos; 8; Threads 3.6GHz, 3.9GHz Turbo, 4C, 8.25M Cache, HT, (120W) DDR4-2666; Memória de 16GB, DDR4, 2666MHz, RDIMM, ECC, BCC ; Armazenamento: 1 SSD de no mínimo 512MB 2,5; 1 HD de 2TB (7200RPM) – 2,5; Painel Traseiro com: 4 portas USB 3.0 2 portas USB 2.0; 1 Porta HDMI e/ou VGA; 1 Placa de vídeo 4 GB DDR5, 4x mDP 1.4 + 4 Adaptadores mDP 1.4 X HDMI ; 1 Conector para caixa de sons;1 Conector para microfone; 1 Porta de rede RJ-45 (Ethernet 10/100/1000); 1 Conector para cabo de alimentação; Sistema operativo Windows 10 Professional; 1 Unidade óptica; Placa:1 slot de placa PCIe x4; 1 slot de placa PCIe x16; com placa wirelles integrada; Teclado e Mouse do Mesmo fabricante do Computador; Formato do computador: torre em preto. Garantia: no mínimo de 03 Anos.</t>
-  </si>
-  <si>
-    <t>Notebook tipo 01. Equipamento deverá ser novo e de 1° uso; Sistema operacional: Windows 11 Professional 64 Bits; Processador: Intel® Core™ i5-1235U, similar ou superior, considerando realização de benchmark de desempenho, devendo ser o respectivo desempenho igual ou superior ao referenciado. Tendo como referência a base de dados do Passmark CPU Mark. Disponível no site: www.cpubenchark.net/; Memória: Mínimo de 8GB (1x8GB), DDR4; Armazenamento: Mínimo SSD de 512GB PCIe NVMe M.2; Câmera: Câmera HD de 720p; Tela: Full HD de 15.6" (1920 x 1080), 120 Hz; Portas: Mínimo de 1 x RJ-45; 1 x HDMI; 2 x USB; Garantia: Garantia não inferior a 1 ano a contar da data da entrega do equipamento.</t>
-  </si>
-  <si>
-    <t>Notebook tipo 02. Equipamento deverá ser novo e de 1° uso; Sistema operacional: Windows 11 Professional 64 Bits(ativado); Processador 13ª geração Intel® Core™ i7-1355U similar ou superior, considerando realização de benchmark de desempenho, devendo ser o respectivo desempenho igual ou superior ao referenciado; Placa de video dedicada NVIDIA® GeForce RTX™ 3050 Ti, 4GB GDDR6 ou similar, considerando realização de benchmark de desempenho, devendo ser o respectivo desempenho igual ou superior ao referenciado; Memória de 16GB DDR5 ; SSD de 1TB PCIe NVMe M.2; Tela mínimo 14.0” Full HD+ (1920X1200); Garantia: Não inferior a 2 anos a contar da data da entrega do equipamento.</t>
-  </si>
-  <si>
-    <t>Notebook tipo 03. Equipamento deverá ser novo e de 1° uso; Sistema operacional: Windows 11 Professional 64 Bits(ativado); Processador Intel® Core™ Ultra 9 185H similar ou superior, considerando realização de benchmark de desempenho, devendo ser o respectivo desempenho igual ou superior ao referenciado. Tendo como referência a base de dados do Passmark CPU Mark. Disponível no site: www.cpubenchmark.net/. Memória RAM DDR4 (ou posterior) de 32 GB no mínimo; Armazenamento SSD de 512 GB; Placa Gráfica (GPU) NVIDIA® GeForce RTX™ 4060, 8GB GDDR6 similar ou superior. Tela com resolução de pelo menos 1920x1080 (Full HD), com cobertura de 100% da gama de cores sRGB, Mínimo de 98% DCI-P3; Portas e Conectividade USB- C/Thunderbolt 3, USB-A, HDMI, leitor de cartões SD; Dell XPS 16 similar ou superior. Sistema Operacional 11 ou macOS em sua versão mais atual. Garantia não inferior a 3(três) anos</t>
-  </si>
-  <si>
-    <t>Notebook tipo 04. Processador: 13ª geração Intel® Core™ i7 1355 -similar ou superior Sistema operacional: Windows 11 Pro, Português. Placa de vídeo: NVIDIA® GeForce® RTX™ 3050, 6GB GDDR6 ou similar. Tela Full HD de 15.6" (1920 x 1080), 120Hz, 250 nits. Memória: Mínimo de 16GB DDR5 (2x8GB) 4800MT/s; Expansível até 32GB (2 slots soDIMM). Armazenamento: Mínimo de SSD de 512GB PCIe NVMe M.2. Teclado funcional numérico e em português, Querty. Portas:1 porta para headset (conjunto de fones de ouvido e microfone), 1 porta Ethernet RJ45, 3 portas USB 3.2 de 1ª geração, 1 porta HDMI 2.1, 1 porta USB-C 3.2 de 2ª geração ou similar Câmera HD RGB de 720p a 30 fps com microfone único integrado Áudio e alto-falantes: 1 porta para headset (conjunto de fones de ouvido e microfone) Alto-falantes estéreo com Realtek ALC3254, 2 de 2,5 W (ou similar) Wireless. Intel® Wi-Fi 6 AX201, 2x2, 802.11ax, placa de rede wireless com Bluetooth® (ou similar);. Bateria principal: Bateria de 3 células e 56 Wh (integrada) – ou similar. Energia: Adaptador CA 240 Watts (Bivolt) – ou similar</t>
-  </si>
-  <si>
-    <t>Monitor LCD e/ou LED 23 Polegadas. Resolução suportada 1920 x 1080; Tipo de tela: LCD e/ou LED; Contraste de 1000:1; Proporção da Imagem: 16:9; No mínimo 1 x HDM e 1 x VGA; Cor: preto, 100 – 240 VAC, 50 – 60Hz; Condição de entrega: Novo e de 1° uso; deve ser entregue com cabos de força e de vídeo(VGA e/ou HDMI); Com garantia de no mínimo 1 ano, a partir da data da entrega.</t>
-  </si>
-  <si>
-    <t>Monitor 23 Polegadas. Full HD, com IPS; em LED; Rotacional; com HDMI e VGA. Garantia mínima de 1 ano</t>
-  </si>
-  <si>
-    <t>Monitor 23" Widescreen. (proporção 16:9); Pixel pitch de, no máximo, de 0,28 mm; Resolução da tela de, no mínimo, 1920x1080 (full hd) e frequência de 75hz; Brilho de, no mínimo, 400 cd/m2; Relação de contraste dinâmico de, no mínimo, 5.000.000:1 ou contraste estático de, no mínimo, 1000:1; Tempo de resposta de, no máximo, 8 ms. Cor predominante: preta; A tela do monitor deverá possuir tecnologia de baixa emissão de luz azul (low blue light); na proposta escrita, deverão ser informados a marca e o modelo do monitor a ser fornecido; No mínimo (02) duas conexões VGA e/ou HDMI; Deverá ser fornecido solução de software que permita configurar ajustes de cor, brilho e contraste através do sistema operacional. Strix XG259QNS, similar ou superior; Deverá possuir hub USB integrado ao monitor, com no mínimo 2 portas de fácil acesso. Garantia mínima de 36 meses.</t>
-  </si>
-  <si>
-    <t>Monitor 25” UltraWide™. Monitor 25 Polegadas Configurações mínimas: Tamanho mínimo: 25 polegadas; Tipo de tela: 21;9 com IPS; Resolução suportada: FULLHD 2560 x 1080; Contraste: 1000:1; Brilho: 250cd/m²; sRGB superior a 99%; Cores: mínimo 16 Milhões; Interfaces: mínimo 2 x HDMI, 1 x Fone de ouvido; 25UM58, similar ou superior; Garantia não inferior a 1 ano.</t>
-  </si>
-  <si>
-    <t>Monitor 29" UltraWide™. Tamanho e Resolução de 29 polegadas (similar ou superior) com 2560 x 1440 (QHD) ou 3840 x 2160 (4K UHD), painel tipo IPS (In-Plane Switching), Cobertura de 99% sRGB(CIE1931), (99% Adobe RGB ou maior, 100% DCI-P3 ou semelhante) com conectividade HDMI, DisplayPort ou USB e /ou Thunderbolt 3,com uma porta extra USB; Taxa da atualização: 75Hz; Brilho: 300Cd/m²; Profundidade de cor 16 Milhões de cores. 29WK600-W, similar o superior. Garantia não inferior a 1(um) ano.</t>
-  </si>
-  <si>
-    <t>Mesa digitalizadora para serviço de Design gráfico: Área ativa: 216 x 135 mm (ou supeior), 2048 níveis de pressão (ou superior), ponteiras reposicionáveis, caneta inclusa que não requer uso de baterias, compatível com o seu sistema operacional (Windows, macOS, etc.) e com os softwares Adobe Photoshop, Illustrator e InDesign. Garantia não inferior a 1(um) ano</t>
-  </si>
-  <si>
-    <t>Estabilizador: Equipamento deverá ser novo e de 1° uso; Tensão de entrada: Deve trabalhar com tensão de 220V; Tensão de saída: Deve trabalhar com tensão de 110V; Fator de potência de saída: 1; Potência em VA: 500VA; Tomadas de saída: Mínimo de 6 tomadas 10A - NBR 14136; Garantia não inferior a 1 ano a contar da data da entrega do equipamento.Deve atender à NBR 14373.</t>
-  </si>
-  <si>
-    <t>Nobreak tipo 01. Potência mínima em VA: 700 VA. Tensão de entrada: Bivolt automático 115/127/220V~; Tensão de saída: 110V e/ou 115V ~; Fator de Potência de Saída: 0,5; Mínimo de tomadas: 4 tomadas NBR 14.136:2002; Autonomia Média: 25 min (Para 1 PC onboard com monitor LCD 17" + Impressora Jato de Tinta); Proteção Sobrecorrente na entrada: Circuito Breaker; Proteção Sobretenção na bateria; Proteção Sobrecarga e curto-circuito; Proteção Sub e sobretenção; Proteção Sub e sobrefrequencia; Proteção Surtos e picos de tensão: (Varistor); Filtro de linha: Sim (Modo diferenciado e modo comum); Estabilizador em 3 estágios; Garantia não inferior a 1 ano a contar da data de entrega do equipamento.</t>
-  </si>
-  <si>
-    <t>Nobreak. Potência nominal: 2000VA; Tensão de entrada: 220V; Tensão de saída: 110V/120V; Quantidade mínima de tomadas de saída: 4 tomadas(10A) NBR 14.136:2002; Frequência nominal (Hz): 60 +/- 5%; Tipo de Bateria: Chumbo- ácida selada regulada por válvula (VRLA) - 12V / 7Ah; Fator de potência de saída: 0,7; Proteção Sobrecorrente na entrada: Circuito Breaker; Proteção Sobretenção na bateria; Proteção Sobrecarga e curto-circuito; Proteção Sub e sobretenção; Proteção Sub e sobrefrequencia; Proteção Surtos e picos de tensão: (Varistor); Filtro de linha: Sim; Garantia não inferior a 1 ano</t>
-  </si>
-  <si>
-    <t>Nobreak tipo 02. Potência mínima em VA: 3KVA. Tensão de entrada: Bivolt automático 220V~; Tensão de saída: 110V ~; Fator de Potência de Saída: 0,6; Mínimo de tomadas: 6 tomadas NBR 14.136:2002; Display LCD com sinalizações padrão do fabricante; Proteção Sobrecorrente na entrada: Circuito Breaker; Proteção Sobretenção na bateria; Proteção Sobrecarga e curto-circuito; Proteção Sub e sobretenção; Proteção Sub e sobrefrequencia; Proteção Surtos e picos de tensão: (Varistor); Filtro de linha: Sim; Garantia não inferior a 1 ano a contar da data de entrega do equipamento.</t>
-  </si>
-  <si>
-    <t>Nobreak tipo 02. Potência mínima em VA: 6KVA. Tensão de entrada: Bivolt automático 220V~; Tensão de saída: 220V ~; Fator de Potência de Saída: 0,6; Mínimo de tomadas: 6 tomadas NBR 14.136:2002; Display LCD com sinalizações padrão do fabricante; Proteção Sobrecorrente na entrada: Circuito Breaker; Proteção Sobretenção na bateria; Proteção Sobrecarga e curto-circuito; Proteção Sub e sobretenção; Proteção Sub e sobrefrequencia; Proteção Surtos e picos de tensão: (Varistor); Filtro de linha: Sim; Garantia não inferior a 1 ano a contar da data de entrega do equipamento.</t>
-  </si>
-  <si>
-    <t>Nobreak tipo 03. Potência mínima em VA: 10KVA. Nobreak 10KVA 01 Formato de onda: sinusoidal, online de dupla conversão; Potência: 10KVA; 10KW; Deve trabalhar com Tensão de entrada: 220V com margem de funcionamento normal entre 100 e 270V, Deve trabalhar com Tensão de saída de 208V e /ou 220V; Conexão de saída: Bornes e/ou NEMA L6-20R e/ou IEC-C13; Formato Torre-rack; possibilidade de monitoramento via SNMP; deve possuir interface RJ-45 10/100 Base-T; deve possuir baterias internas e opção para banco de baterias externo; Deve possuir display frontal de indicação para interação através de teclas de comando; Garantia não inferior a 3 anos a partir da data da entrega.. SRT10KXLI Similar ou superior</t>
-  </si>
-  <si>
-    <t>Rack 42U: Deve suportar peso mínimo de 1.000Kg; Altura do Rack de 42U; Largura 19”; Cor do Rack: Preto; com porta frontal telada; Largura máxima; 75 cm; Altura máxima: 200cm, Profundidade Máxima 110cm; Deve acompanhar guia de cabos e Ventilador/Exaustor de teto com no mínimo 4 ventiladores funcionando em 220V; Conformidade de proteção IP20; Rodas de piso (com trava); O Rack deve ser entregue com um Kit Porca-gaiola M5 com Parafuso Cabeça “Panela” padrão fenda cruzada e Arruela Zincada(50 Unidades); Deve ser entregue montado; Garantia mínima de 05 anos, contra defeitos de fabricação.</t>
-  </si>
-  <si>
-    <t>Gerador de Energia Elétrica de 40 kVA: com alimentação a Diesel, 220/380V trifásico, frequência 60Hz, Silencioso, Cabinado, com partida elétrica, Disjuntor e Quadro de Transferência Automático, contendo as funções de proteção: Baixa pressão de óleo, Temperatura máxima de água, Alta/Baixa tensão, Alta temperatura de disparo do motor (overspeed), Regulagem de Tensão e Frequência, Parada de emergência e Falha na partida/Disjuntor. Fator de potência: 0,8; IP: 23; Frequência: 60Hz; Garantia não inferior a 1 ano.</t>
-  </si>
-  <si>
-    <t>Estação Meteorológica Completa. Onset com Telemetria de Dados EMC-RX-3000, com Data Logger RX-3004 4G ou semelhante (Envia os dados automaticamente para Internet).Descrição dos Sensores: Sensor de Fotossintese; Sensor de Radiação Solar; Sensor de Temperatura e Umidade; Pluviômetro; Sensor de Pressão Barométrica; Sensor de Direção e Velocidade do Vento; Sensor de Umidade do Solo; Sensor de Temperatura do Solo; Sensor de Umidade Foliar.Suporte Metálico para Sensor de Radiação. Abraçadeira para Sensores de Radiação. Abrigo Meteorológico. Painel Solar. Suporte para Cabos. Suporte Tripé.</t>
-  </si>
-  <si>
-    <t>Termo-higrômetro Digital com Data Logger e Sensor de CO2 com Bluetooth ou semelhante. Comprovante de calibração. CONTRAPARTIDA</t>
-  </si>
-  <si>
-    <t>Trado, tipo caneco, com caçamba de 20 cm e diâmetro de 2" (duas polegadas), para coletas de solo em profundidade de 20 em 20 cm, para análise de Fertilidade e Pedologia. Modelo: TC - 3" e 4".</t>
-  </si>
-  <si>
-    <t>Impressora Multifuncional colorida. Tipo de impressora: Tecnologia de impressão: “Tank”; Resolução de impressão mínima: 600 dpi x 1.200 dpi; Velocidade de impressão: ISO 10ppm em preto e 5ppm em cores; Deve oferecer o serviço de impressão em frente e verso; Velocidade de cópia: mínimo 6 cpm em preto e 3cpm em cores; Capacidade de bandeja do papel: mínimo de 100 folhas A4; Resolução para digitalização: 1200dpi x 2400dpi; Interfaces de comunicação: 1 x USB e Wi-Fi; Sistemas operacionais compatíveis: Windows 10/11; Garantia mínima de 1 ano.</t>
-  </si>
-  <si>
-    <t>Impressora multifucional laser monocromática. Bandeja de entrada: Mínimo de 250 folhas; Velocidade de impressão: Mínimo de 38 ppm; Com Duplex; Cópia: Duplex; velocidade mínima para cópias: 38 com; Digitalização: Resolução: 1200 x 1200 dpi; Digitalização com ADF; Velocidade de impressão: 29 ppm/46 ipm (preto e branco), até 20 ppm/34 ipm (cores); duplex: Até 46 ipm (preto e branco), até 34 ipm (cores); Formato de digitalização padrão: PDF e JPG; Memória: Padrão 512; Processador: 1200MHz; ConecƟvidade: 1 USB de alta velocidade 2.0; 1 host USB traseiro; 1 porta USB frontal; Rede Gigabit Ethernet LAN 10/100/1000BASE-T; Wi-Fi 802.11b/g/n/2,4/5 GHZ; Volume mensal recomendado pelo fabricante: 4000 cópias; Garantia não inferior a 1 ano a partir da data de entrega.</t>
-  </si>
-  <si>
-    <t>Caixa de som para computador. - Sistema de áudio estéreo 2.1 - potência (rms): 45w (25w + 2x10w) - 2 caixas satélites, blindadas magneticamente - botões individuais para controlede volume, graves e agudos - entrada para cartão de memória sd e pendrive - botões para selecionar funções auxiliar (caso utilize no computador) ou sd/usb - botões play/pause, retroceder,avançar,10+ (avançar 10 músicas) - 1 subwoofer de 6.5' - resposta de frequência: satélites: 120hz-20khz / subwoofer: 20hz-170hz - separação: =40db - sinal/ruído: =70db - distorção: =0.5% (1k,1w) - alimentação bivolt automática: 100v-240v; 50hz/60hz - dimensão das caixas acústicas: (lxaxp): subwoofer: 252 x 268 x 259mm / satélites: 104 x 186 x 102mm. - tamanho da caixa coletiva (lxaxp): 302x400x302 modelo de referência : c3 tech sp-242ls ou similar.</t>
-  </si>
-  <si>
-    <t>Switch 24 portas RJ-45 100/1000 + 4(quatro) portas SFP+; Quantidade de portas RJ45: 24 portas 10/100/1000Mbps; Quantidade de portas SFP: 4 slots SFP 1Gb; Capacidade de mínima comutação: 50Gbps; Taxa de encaminhamento: 40Mpps; Recursos de L3: Roteamento estático e RIP; Recursos de L2: RJ-45 port support: 10BASE-T (IEEE 802.3) 100BASE-TX (IEEE 802.3u) 1000BASE-T (IEEE 802.3ab); Vlans: IEEE 802.1Q; controle de fluxo: IEEE 802.3x for full-duplex mode; Tabela de endereçamentos MAC: 8K; Flash Memory de 32 MB Jumbo Frames: 8K; DRAM de 256MB Montagem em Rack 19"; Gerenciamento: SNMP v1/v2c/v3; Segurança: Proteção DDOS; Isolamento de porta; IPv6: IPv4/IPv6 Dual Protocol Stack; QoS: QoS dinâmica; Garantia: não inferior a 1 ano; Alimentação: 100-240 VAC, 50-60 Hz</t>
-  </si>
-  <si>
-    <t>Swicth Ethernet 48 portas - Switch Dell S4148 ou similar técnico. Garantia não inferior a 1 ano.</t>
-  </si>
-  <si>
-    <t>Smart TV 85” UHD 4K, LED, HDR (High Dynamic Range), Wi-Fi, Bluetooth, HDR 10, Dolby Audio, 3 HDMI, 2 USB, 1 Porta LAN, 1 Entrada AV (Áudio &amp; Vídeo), 1 entrada RF para antena/cabo, (HDMI- CEC), 1 saída Áudio digital (óptica) e 1 saída para fone de ouvido, controle remoto incluso, garantia de 01 (um) ano.</t>
-  </si>
-  <si>
-    <t>Smart TV 55” UHD 4K, LED, HDR (High Dynamic Range), Wi-Fi, Bluetooth, HDR 10, Dolby Audio, 3 HDMI, 2 USB, 1 Porta LAN, 1 Entrada AV (Áudio &amp; Vídeo), 1 entrada RF para antena/cabo, (HDMI- CEC), 1 saída Áudio digital (óptica) , garantia de 01 (um) ano.</t>
-  </si>
-  <si>
-    <t>Rádio Comunicador/ Transceptor Bateria Recarregável: Características: Com carregamento fácil via cabo USB e recarga rápida em até 6 horas, tem display luminoso e estão prontos para encarar qualquer rotina. Especificações Técnicas: Carregamento fácil via cabo USB e recarga rápida em até 6 horas / Display luminoso / Função Vox: ativa e desativa a comunicação através da voz / Fone de ouvido incluso / Indicador do nível de bateria. 26 canais de operaçã/Frequência: 462,5625 MHz até 467,7125 MHz / 10 tons de chamada / Função vox com 3 níveis de sensibilidade Alimentação: 5,2 V/ 500mA Duração da Bateria: 13,5 horas Tipo de Bateria: Bateria Recarregável NiMh 3,6 V 650 mAFrequência de Operação: 462,5625 MHz a 467,7125 MHz Tempo de Garantia: 1 ano. EMBALAGEM Dimensões (P x L x A): A314 x P70 x L288 Peso bruto (kg): 0,930kg Conteúdo da embalagem: 3 Radiocomunicadores, 3 fontes, 3 cabos USB, 3 clip belt e 3 fones de ouvido</t>
-  </si>
-  <si>
-    <t>SOLUÇÃO CONVERGENTE PARA ACONDICIONAMENTO DE SERVIDORES .1.1. CARACTERISTICAS DO RACK 1.1.1. Rack com alturamáxima de 42U, padrão 19 polegadas; 1.1.2. Deverá possuir 01(um)dianteira e 02 (duas) portas traseiras, ambas deverão ser perfuradas,devendo possuir, no mínimo, 2(dois) coolers na parte superior doRack sendo estes do mesmo fabricante; 1.1.3. Deverá possuir painéislaterais re movíveis; 1.1.4. Deverá possuir sistema de travamento porchave para as portas; 1.1.5. Deverá possui uma largura mínima de600mm; 1.1.6. Deverá possuir profundidade mínima de 1070mm;1.1.7. Deverá ser ofertado juntamente com o rack 02 (duas) unidadesde distribuição de energia (PDU), com as seguintes características:1.1.7.1. Deverá possuir montagem em 0U (zero u); 1.1.7.2. Deverápossuir voltagem de entrada e saída de 208V e/ou 220V; 1.1.7.3.Deverá possuir pelo menos 20 tomadas IEC 320 C13; 1.1.7.4. Deverápossuir pelo menos 04 (quatro) tomadas I EC 320 C19; 1.1.7.5. ; 1.1.7.6.Deverá suportar uma corrente de 30A (trinta amperes). 1.1.7.7 Agarantia do RACK, PDU e Nobreak deverá ser de no mínimo 24 (vinte e quatro) meses. 1.1.8 Para que haja convergência de tec nologia e de funcionamento, o Rack deve ser do mesmo fabricante do nobreak fornecido. CONTRAPARTIDA1.2.</t>
-  </si>
-  <si>
-    <t>SOLUÇÃO CONVERGENTE PARA ACONDICIONAMENTO DE SERVIDORES 1.2. CARACTERISTICAS DO NOBREAK 1.2.1. Deverá ser entregue juntamente com o rack, e com as seguintes características: 1.2.1.1. Deverá possuir interface de rede RJ-45 10/100 para gerenciamento remoto; 1.2.1.2. Deverá possuir console LCD para status e controle do equipamento; 1.2.1.3. Deverá possuir alarme sonoro; 1.2.1.4. Deverá ser totalmente compatível(tipo rack) e montável no rack ofertado, incluindo-se kit de trilhos para montagem; 1.2.1.5. Deverá possuir sensor de temperatura; 1.2.1.6. Deverá possuir potência de no mínimo 10.000 VA / 10.000W. FP 1.0. Deve possui tempo de autonomia mínimo de 3 minutos à toda carga; 1.2.1.7. Possuir by-pass interno; 1.2.1.8. Deverá incluir o kit de baterias baterias seladas e a prova de vazamento necessário ao perfeito funcionamento da solução; 1.2.1.9. Deverá estar em conformidade com a diretiva RoHS; 1.2.1.10. Deverá possuir as seguintes características de conexões de entrada: 1.2.1.10.1. Suportar tensão de entrada nominal de de 208V e/ou 220V; 1.2.1.10.2. Possuir conexão Hard Wire 3-wire (2PH + G); 1.2.1.10.3. Possuir frequência de entrada auto sensing 40-70 Hz. 1.2.1.11.Deverá possuir as seguintes características de saída: 1.2.1.11.1.Possuir tensão de 208V e/ou 220V; 1.2.1.11.2. Possuir duplaconversão online e onda senoidal; 1.2.1.11.3. Possui 1 (uma) conexãoHard Wire 3-wire (2PH + G); ;1.2.1.11.6. Potência de 10 KVA. 1.2.1.12 A garantia do Nobreak deverá ser de no mínimo 24 (vinte e quatro) meses. 1.2.1.13 Para quehaja convergência de tecnologia e de funcionamento, o nobreak deveser do mesmo fabricante do rack fornecido.</t>
-  </si>
-  <si>
-    <t>Ubiquiti Unifi Access Point U6 Mesh Pro. Access Point Wi-Fi 6 de alto desempenho. Obs: A necessidade de aquisição dos equipamentos supracitados da forma como foi descrito. Se dá, em virtude da necessidade de padronização de interfaces na UERN, tendo em vista a aquisição anterior de equipamentos de mesma característica/configuração e uso dentro da instituição. Garantia não inferior a 1 ano</t>
-  </si>
-  <si>
-    <t>Ubiquiti Unifi Access Point U6 Pro (U6-PRO) Access Point Wi-Fi 6 de alto desempenho. Obs: A necessidade de aquisição dos equipamentos supracitados da forma como foi descrito. Se dá, em virtude da necessidade de padronização de interfaces na UERN, tendo em vista a aquisição anterior de equipamentos de mesma característica/configuração e uso dentro da instituição.Garantia não inferior a 1 ano.</t>
-  </si>
-  <si>
-    <t>Notebook tipo 01. Equipamento deverá ser novo e de 1° uso; Sistema operacional: Windows 11 Professional 64 Bits; Processador: Intel® Core™ i5-1235U, similar ou superior, considerando realização de benchmark de desempenho, devendo ser o respectivo desempenho igual ou superior ao referenciado. Tendo como referência a base de dados do Passmark CPU Mark. Disponível no site: www.cpubenchmark.net/; Memória: Mínimo de 8GB (1x8GB), DDR4; Armazenamento: Mínimo SSD de 512GB PCIe NVMe M.2; Câmera: Câmera HD de 720p; Tela: Full HD de 15.6" (1920 x 1080), 120 Hz; Portas: Mínimo de 1 x RJ-45; 1 x HDMI; 2 x USB; Garantia: Garantia não inferior a 1 ano a contar da data da entrega do equipamento</t>
-  </si>
-  <si>
-    <t>Notebook tipo 03. Equipamento deverá ser novo e de 1° uso; Sistema operacional: Windows 11 Professional 64 Bits(ativado); Processador Intel® Core™ Ultra 9 185H similar ou superior, considerando realização de benchmark de desempenho, devendo ser o respectivo desempenho igual ou superior ao referenciado. Tendo como referência a base de dados do Passmark CPU Mark. Disponível no site: www.cpubenchmark.net/. Memória RAM DDR4 (ou posterior) de 32 GB no mínimo; Armazenamento SSD de 512 GB; Placa Gráfica (GPU) NVIDIA® GeForce RTX™ 4060, 8GB GDDR6 similar ou superior. Tela com resolução de pelo menos 1920x1080 (Full HD), com cobertura de 100% da gama de cores sRGB, Mínimo de 98% DCI-P3; Portas e Conectividade USB- C/Thunderbolt 3, USB-A, HDMI, leitor de cartões SD; Dell XPS 16 similar ou superior. Sistema Operacional 11 ou macOS em sua versão mais atual. Garantia não inferior a 3(três) anos.</t>
-  </si>
-  <si>
-    <t>Nobreak tipo 03 Potência mínima em VA: 10KVA Nobreak 10KVA 01 Formato de onda: sinusoidal, online de dupla conversão; Potência: 10KVA; 10KW; Deve trabalhar com Tensão de entrada: 220V com margem de funcionamento normal entre 100 e 270V, Deve trabalhar com Tensão de saída de 208V e /ou 220V; Conexão de saída: Bornes e/ou NEMA L6-20R e/ou IEC-C13; Formato Torre-rack; possibilidade de monitoramento via SNMP; deve possuir interface RJ-45 10/100 Base-T; deve possuir baterias internas e opção para banco de baterias externo; Deve possuir display frontal de indicação para interação através de teclas de comando; Garantia não inferior a 3 anos a partir da data da entrega.. SRT10KXLI Similar ou superior</t>
+    <t>Ponto de acesso Ponto De Acesso Tipo: Wi‑Fi 6 Corporativo 4x4 Mimo, Características Adicionais: Antena Interna, Velocidade Wireless: 1.200 MBPS</t>
+  </si>
+  <si>
+    <t>Câmera Digital Câmera Digital Resolução: 16 Mp (4608 X 3456 Pixels), Zoom Óptico: 125X, Zoom Digital: 4X, Terminal Conexão Saída: Hdmi, Usb, Wi‑Fi, Bluetooth, Características Adicionais: Lente De 24-3000 Mm Equivalente (Ultra Teleobjetiv, Alimentação Câmera: Bateria, Capacidade Memória Interna: 20MB, Sensibilidade: 100-6400 (Iso), Tipo Monitor: Lcd Tft, Formato De Gravação: Gravação De Vídeo 4k Uhd (3840 X 2160 Pixels) A 30, Aplicação: Uso Em Geral</t>
+  </si>
+  <si>
+    <t>Projetor multimídia Projetor Multimídia Tipo Lâmpada: Led, Voltagem: BivoltV, Quantidade Entradas Vídeo: 3UN, Tipo Zoom: Motorizado, Tipo: Profissional, Características Adicionais: Conexão: Usb, Wi‑Fi, Luminosidade Mínima: 7.000LM, Tipo Projeção: Frontal, Resolução: 1920 X 1200</t>
+  </si>
+  <si>
+    <t>Estante rack Estante Rack Tipo: De Piso, Padrão: 19 X 42u, Estrutura: Chapa Aço, Portas: Frontais E Traseiras Com Orifício Para Ventilação, Porta Frontal: Em Aço Complemente, Corpo: Plástico, Cor: Preta, Acabamento Superficial: Pintura feita por electrostatico</t>
+  </si>
+  <si>
+    <t>Trado Trado Material: Aço, Tipo: Concha, Diâmetro: 4POL, Aplicação: Perfuração E Coleta De Solo, Características Adicionais: 2 Haste Em Tubo Galvanizado De 1m X 3/4"</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1020,7 +834,7 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -1032,13 +846,13 @@
         <v>817.4400000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H2" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I2" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1049,7 +863,7 @@
         <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1061,13 +875,13 @@
         <v>1681.38</v>
       </c>
       <c r="G3" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I3" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1078,7 +892,7 @@
         <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1090,13 +904,13 @@
         <v>14084.84</v>
       </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I4" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1107,7 +921,7 @@
         <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -1119,13 +933,13 @@
         <v>6609.92</v>
       </c>
       <c r="G5" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H5" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I5" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1136,7 +950,7 @@
         <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1148,13 +962,13 @@
         <v>3241.56</v>
       </c>
       <c r="G6" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H6" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I6" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1165,7 +979,7 @@
         <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1177,13 +991,13 @@
         <v>25750.94</v>
       </c>
       <c r="G7" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H7" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I7" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1194,7 +1008,7 @@
         <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1206,13 +1020,13 @@
         <v>76117.5</v>
       </c>
       <c r="G8" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H8" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1223,7 +1037,7 @@
         <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1235,13 +1049,13 @@
         <v>19689.8</v>
       </c>
       <c r="G9" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H9" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I9" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1252,7 +1066,7 @@
         <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1264,13 +1078,13 @@
         <v>23969.64</v>
       </c>
       <c r="G10" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H10" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I10" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1281,7 +1095,7 @@
         <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1293,13 +1107,13 @@
         <v>17750</v>
       </c>
       <c r="G11" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H11" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I11" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1310,7 +1124,7 @@
         <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1322,13 +1136,13 @@
         <v>1117.46</v>
       </c>
       <c r="G12" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H12" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I12" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1339,7 +1153,7 @@
         <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -1351,13 +1165,13 @@
         <v>1611.04</v>
       </c>
       <c r="G13" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H13" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I13" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1368,7 +1182,7 @@
         <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D14">
         <v>112</v>
@@ -1380,13 +1194,13 @@
         <v>154437.92</v>
       </c>
       <c r="G14" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H14" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I14" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1397,7 +1211,7 @@
         <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D15">
         <v>112</v>
@@ -1409,13 +1223,13 @@
         <v>192678.08</v>
       </c>
       <c r="G15" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H15" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I15" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1426,7 +1240,7 @@
         <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>40</v>
@@ -1438,13 +1252,13 @@
         <v>19700.8</v>
       </c>
       <c r="G16" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H16" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I16" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1455,7 +1269,7 @@
         <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <v>30</v>
@@ -1467,13 +1281,13 @@
         <v>16500</v>
       </c>
       <c r="G17" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H17" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I17" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1484,7 +1298,7 @@
         <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1496,13 +1310,13 @@
         <v>8292</v>
       </c>
       <c r="G18" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H18" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I18" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1513,7 +1327,7 @@
         <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1525,13 +1339,13 @@
         <v>19078.26</v>
       </c>
       <c r="G19" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H19" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I19" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1542,7 +1356,7 @@
         <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -1554,13 +1368,13 @@
         <v>3180</v>
       </c>
       <c r="G20" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H20" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1571,7 +1385,7 @@
         <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1583,13 +1397,13 @@
         <v>4170.54</v>
       </c>
       <c r="G21" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H21" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1600,7 +1414,7 @@
         <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="D22">
         <v>20</v>
@@ -1612,13 +1426,13 @@
         <v>458.8</v>
       </c>
       <c r="G22" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H22" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1629,7 +1443,7 @@
         <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -1641,13 +1455,13 @@
         <v>1570.8</v>
       </c>
       <c r="G23" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H23" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1658,7 +1472,7 @@
         <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>8</v>
@@ -1670,13 +1484,13 @@
         <v>10034.56</v>
       </c>
       <c r="G24" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H24" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I24" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1687,7 +1501,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1699,13 +1513,13 @@
         <v>104920.1</v>
       </c>
       <c r="G25" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H25" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I25" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1716,7 +1530,7 @@
         <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -1728,13 +1542,13 @@
         <v>5370.56</v>
       </c>
       <c r="G26" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H26" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I26" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1745,7 +1559,7 @@
         <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -1757,13 +1571,13 @@
         <v>55399</v>
       </c>
       <c r="G27" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H27" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I27" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1774,7 +1588,7 @@
         <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D28">
         <v>150</v>
@@ -1786,13 +1600,13 @@
         <v>706873.5</v>
       </c>
       <c r="G28" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H28" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I28" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1803,7 +1617,7 @@
         <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D29">
         <v>75</v>
@@ -1815,13 +1629,13 @@
         <v>577500</v>
       </c>
       <c r="G29" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H29" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I29" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1832,7 +1646,7 @@
         <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="D30">
         <v>11</v>
@@ -1844,13 +1658,13 @@
         <v>166140.37</v>
       </c>
       <c r="G30" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H30" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I30" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1861,7 +1675,7 @@
         <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -1873,13 +1687,13 @@
         <v>26067.6</v>
       </c>
       <c r="G31" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H31" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I31" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1890,7 +1704,7 @@
         <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1902,13 +1716,13 @@
         <v>27475.92</v>
       </c>
       <c r="G32" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H32" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I32" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1919,7 +1733,7 @@
         <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="D33">
         <v>56</v>
@@ -1931,13 +1745,13 @@
         <v>224526.4</v>
       </c>
       <c r="G33" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H33" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I33" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1948,7 +1762,7 @@
         <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="D34">
         <v>25</v>
@@ -1960,13 +1774,13 @@
         <v>143991.25</v>
       </c>
       <c r="G34" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H34" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I34" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1977,7 +1791,7 @@
         <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="D35">
         <v>6</v>
@@ -1989,13 +1803,13 @@
         <v>136289.88</v>
       </c>
       <c r="G35" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H35" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I35" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2006,7 +1820,7 @@
         <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="D36">
         <v>12</v>
@@ -2018,13 +1832,13 @@
         <v>84201.48</v>
       </c>
       <c r="G36" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H36" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I36" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2035,7 +1849,7 @@
         <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="D37">
         <v>90</v>
@@ -2047,13 +1861,13 @@
         <v>135350.1</v>
       </c>
       <c r="G37" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H37" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I37" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2064,7 +1878,7 @@
         <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="D38">
         <v>20</v>
@@ -2076,13 +1890,13 @@
         <v>19530.2</v>
       </c>
       <c r="G38" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H38" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I38" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2093,7 +1907,7 @@
         <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="D39">
         <v>120</v>
@@ -2105,13 +1919,13 @@
         <v>186703.2</v>
       </c>
       <c r="G39" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H39" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I39" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2122,7 +1936,7 @@
         <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="D40">
         <v>24</v>
@@ -2134,13 +1948,13 @@
         <v>41022.96</v>
       </c>
       <c r="G40" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H40" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I40" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2151,7 +1965,7 @@
         <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="D41">
         <v>12</v>
@@ -2163,13 +1977,13 @@
         <v>22438.8</v>
       </c>
       <c r="G41" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H41" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I41" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2180,7 +1994,7 @@
         <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="D42">
         <v>12</v>
@@ -2192,13 +2006,13 @@
         <v>7829.64</v>
       </c>
       <c r="G42" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H42" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I42" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2209,7 +2023,7 @@
         <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="D43">
         <v>22</v>
@@ -2221,13 +2035,13 @@
         <v>3421.44</v>
       </c>
       <c r="G43" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H43" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I43" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2238,7 +2052,7 @@
         <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="D44">
         <v>60</v>
@@ -2250,13 +2064,13 @@
         <v>41332.8</v>
       </c>
       <c r="G44" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H44" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I44" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2267,7 +2081,7 @@
         <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -2279,13 +2093,13 @@
         <v>13694</v>
       </c>
       <c r="G45" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H45" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I45" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2296,7 +2110,7 @@
         <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="D46">
         <v>20</v>
@@ -2308,13 +2122,13 @@
         <v>110760.2</v>
       </c>
       <c r="G46" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H46" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I46" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2325,7 +2139,7 @@
         <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -2337,13 +2151,13 @@
         <v>164714.8</v>
       </c>
       <c r="G47" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H47" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I47" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2354,7 +2168,7 @@
         <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="D48">
         <v>7</v>
@@ -2366,13 +2180,13 @@
         <v>166024.53</v>
       </c>
       <c r="G48" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H48" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I48" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2383,7 +2197,7 @@
         <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -2395,13 +2209,13 @@
         <v>31692.99</v>
       </c>
       <c r="G49" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H49" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I49" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2412,7 +2226,7 @@
         <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -2424,13 +2238,13 @@
         <v>134348.4</v>
       </c>
       <c r="G50" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H50" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I50" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2441,7 +2255,7 @@
         <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -2453,13 +2267,13 @@
         <v>165892.32</v>
       </c>
       <c r="G51" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H51" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I51" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2470,7 +2284,7 @@
         <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="D52">
         <v>10</v>
@@ -2482,13 +2296,13 @@
         <v>16940.6</v>
       </c>
       <c r="G52" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H52" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I52" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2499,7 +2313,7 @@
         <v>122</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -2511,13 +2325,13 @@
         <v>684.4</v>
       </c>
       <c r="G53" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H53" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I53" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2528,7 +2342,7 @@
         <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -2540,13 +2354,13 @@
         <v>3059.98</v>
       </c>
       <c r="G54" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H54" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I54" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2557,7 +2371,7 @@
         <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="D55">
         <v>6</v>
@@ -2569,13 +2383,13 @@
         <v>25822.08</v>
       </c>
       <c r="G55" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H55" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I55" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2586,7 +2400,7 @@
         <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -2598,13 +2412,13 @@
         <v>504.48</v>
       </c>
       <c r="G56" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H56" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I56" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2615,7 +2429,7 @@
         <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -2627,13 +2441,13 @@
         <v>15339.03</v>
       </c>
       <c r="G57" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H57" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I57" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2644,7 +2458,7 @@
         <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -2656,13 +2470,13 @@
         <v>8770.440000000001</v>
       </c>
       <c r="G58" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H58" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I58" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2673,7 +2487,7 @@
         <v>128</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -2685,13 +2499,13 @@
         <v>17056.36</v>
       </c>
       <c r="G59" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H59" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I59" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2702,7 +2516,7 @@
         <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -2714,13 +2528,13 @@
         <v>5568</v>
       </c>
       <c r="G60" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H60" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I60" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2731,7 +2545,7 @@
         <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -2743,13 +2557,13 @@
         <v>1965.36</v>
       </c>
       <c r="G61" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H61" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I61" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2760,7 +2574,7 @@
         <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="D62">
         <v>6</v>
@@ -2772,13 +2586,13 @@
         <v>80636.45999999999</v>
       </c>
       <c r="G62" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H62" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I62" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2789,7 +2603,7 @@
         <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -2801,13 +2615,13 @@
         <v>168480</v>
       </c>
       <c r="G63" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H63" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I63" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2818,7 +2632,7 @@
         <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="D64">
         <v>38</v>
@@ -2830,13 +2644,13 @@
         <v>52398.58</v>
       </c>
       <c r="G64" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H64" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I64" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2847,7 +2661,7 @@
         <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="D65">
         <v>38</v>
@@ -2859,13 +2673,13 @@
         <v>65372.92</v>
       </c>
       <c r="G65" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H65" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I65" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2876,7 +2690,7 @@
         <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="D66">
         <v>50</v>
@@ -2888,13 +2702,13 @@
         <v>235624.5</v>
       </c>
       <c r="G66" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H66" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I66" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2905,7 +2719,7 @@
         <v>104</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="D67">
         <v>25</v>
@@ -2917,13 +2731,13 @@
         <v>192500</v>
       </c>
       <c r="G67" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H67" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I67" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2934,7 +2748,7 @@
         <v>105</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -2946,13 +2760,13 @@
         <v>60414.68</v>
       </c>
       <c r="G68" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H68" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I68" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2963,7 +2777,7 @@
         <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="D69">
         <v>19</v>
@@ -2975,13 +2789,13 @@
         <v>76178.60000000001</v>
       </c>
       <c r="G69" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H69" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I69" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2992,7 +2806,7 @@
         <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -3004,13 +2818,13 @@
         <v>68144.94</v>
       </c>
       <c r="G70" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H70" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I70" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3021,7 +2835,7 @@
         <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -3033,13 +2847,13 @@
         <v>71153.37</v>
       </c>
       <c r="G71" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H71" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I71" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3049,9 +2863,6 @@
       <c r="B72" t="s">
         <v>131</v>
       </c>
-      <c r="C72" t="s">
-        <v>193</v>
-      </c>
       <c r="D72">
         <v>2</v>
       </c>
@@ -3062,13 +2873,13 @@
         <v>84240</v>
       </c>
       <c r="G72" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H72" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
